--- a/Output/Difference in moving averages16Oct.xlsx
+++ b/Output/Difference in moving averages16Oct.xlsx
@@ -382,12 +382,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>31-day average of new cases per million</t>
+          <t>31-day average of new cases per million on end_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>61-day average of new cases per million</t>
+          <t>61-day average of new cases per million on end_date</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -427,7 +427,7 @@
         <v>1.04227868852459</v>
       </c>
       <c r="F2">
-        <v>0.5872416467177437</v>
+        <v>0.6646505787510942</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -461,7 +461,7 @@
         <v>5.848393442622951</v>
       </c>
       <c r="F3">
-        <v>0.2985269266792627</v>
+        <v>0.4683578650224575</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         <v>2.491</v>
       </c>
       <c r="F4">
-        <v>0.05434452625953953</v>
+        <v>0.04717198440667601</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         <v>10.95295081967213</v>
       </c>
       <c r="F5">
-        <v>0.7993996248999115</v>
+        <v>0.8020266219923539</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         <v>0.5855245901639344</v>
       </c>
       <c r="F6">
-        <v>0.1080218633798786</v>
+        <v>0.1269449380071233</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         <v>3.888</v>
       </c>
       <c r="F7">
-        <v>0.1400844854531578</v>
+        <v>0.1514945877505779</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         <v>56.41845901639344</v>
       </c>
       <c r="F8">
-        <v>4.723557627702017</v>
+        <v>5.231632067231535</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>0.8516557377049181</v>
       </c>
       <c r="F9">
-        <v>0.03887609079649619</v>
+        <v>0.03769593259332928</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>0.1612459016393443</v>
       </c>
       <c r="F10">
-        <v>0.02273825606395596</v>
+        <v>0.02576761226282361</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         <v>0.009836065573770491</v>
       </c>
       <c r="F11">
-        <v>0.007559121026115737</v>
+        <v>0.0105117177807478</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>1.835377049180328</v>
       </c>
       <c r="F12">
-        <v>0.3636197570005795</v>
+        <v>0.3423210439033681</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>126.2263114754098</v>
       </c>
       <c r="F13">
-        <v>1.344924550813918</v>
+        <v>1.19643753588726</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>0.6890163934426229</v>
       </c>
       <c r="F14">
-        <v>0.817701579872638</v>
+        <v>0.8833403842787558</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>0.3973114754098361</v>
       </c>
       <c r="F15">
-        <v>0.05257215849532303</v>
+        <v>0.05238726726713257</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>4.191852459016394</v>
       </c>
       <c r="F17">
-        <v>0.3853085010067133</v>
+        <v>0.4802058222636689</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>2.028508196721312</v>
       </c>
       <c r="F18">
-        <v>0.3833535192595218</v>
+        <v>0.447937895704188</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>0.2437377049180328</v>
       </c>
       <c r="F19">
-        <v>0.06156841788533235</v>
+        <v>0.05957478470628003</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>1.260918032786885</v>
       </c>
       <c r="F20">
-        <v>3.910213123006565</v>
+        <v>3.540284968303395</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>1.393229508196721</v>
       </c>
       <c r="F21">
-        <v>0.5075447686629873</v>
+        <v>0.6544366865175697</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>21.33659016393442</v>
       </c>
       <c r="F22">
-        <v>1.977564383123756</v>
+        <v>2.446938567837631</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>0.596344262295082</v>
       </c>
       <c r="F23">
-        <v>0.05715853121371701</v>
+        <v>0.07026389679910525</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>8.309786885245902</v>
       </c>
       <c r="F24">
-        <v>0.2658052442876666</v>
+        <v>0.2782680759682457</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>13.26170491803279</v>
       </c>
       <c r="F25">
-        <v>1.134091509815704</v>
+        <v>1.385943623853681</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>2.61844262295082</v>
       </c>
       <c r="F26">
-        <v>0.7560144860810816</v>
+        <v>0.8727532659728571</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>3.635049180327869</v>
       </c>
       <c r="F27">
-        <v>0.2130335752302872</v>
+        <v>0.1103406614627537</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>2.23244262295082</v>
       </c>
       <c r="F28">
-        <v>0.6734276721833681</v>
+        <v>0.4565065171700148</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>1.572819672131148</v>
       </c>
       <c r="F29">
-        <v>0.5285890420730578</v>
+        <v>0.5597305662458437</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>59.76685245901639</v>
       </c>
       <c r="F30">
-        <v>1.89440371639457</v>
+        <v>2.393757439356828</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>56.79218032786886</v>
       </c>
       <c r="F31">
-        <v>1.363285604279432</v>
+        <v>0.8392335354877263</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>4.052967213114754</v>
       </c>
       <c r="F32">
-        <v>0.3999120666967139</v>
+        <v>0.441530764366967</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>23.02652459016393</v>
       </c>
       <c r="F33">
-        <v>6.078541564138308</v>
+        <v>7.590288217990578</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>0.006754098360655738</v>
       </c>
       <c r="F34">
-        <v>0.00541071586066477</v>
+        <v>0.001370605970829375</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
         <v>0.3792786885245902</v>
       </c>
       <c r="F36">
-        <v>0.1507251297666319</v>
+        <v>0.1623236413003281</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>1.793754098360656</v>
       </c>
       <c r="F37">
-        <v>0.3917000208013892</v>
+        <v>0.4841607398356109</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>0.6104262295081967</v>
       </c>
       <c r="F39">
-        <v>0.06255865042105857</v>
+        <v>0.04881501539185885</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>3.324754098360656</v>
       </c>
       <c r="F40">
-        <v>1.151135326212689</v>
+        <v>1.362676272649147</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>142.929868852459</v>
       </c>
       <c r="F41">
-        <v>1.467607784227286</v>
+        <v>1.766255866850484</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>0.11</v>
       </c>
       <c r="F42">
-        <v>0.05546430431060089</v>
+        <v>0.05205618712337947</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>54.4662131147541</v>
       </c>
       <c r="F43">
-        <v>1.353124317042438</v>
+        <v>1.304461570022105</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>4.062737704918033</v>
       </c>
       <c r="F44">
-        <v>0.1078689466452058</v>
+        <v>0.1068795762173563</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>9.634508196721312</v>
       </c>
       <c r="F45">
-        <v>0.4419231044216779</v>
+        <v>0.4574030832463262</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>53.8588524590164</v>
       </c>
       <c r="F46">
-        <v>1.243257445297912</v>
+        <v>1.343573772443284</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>3.063622950819672</v>
       </c>
       <c r="F47">
-        <v>0.3600267861145832</v>
+        <v>0.3994333840854735</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>0.02844262295081967</v>
       </c>
       <c r="F48">
-        <v>0.02935716277874447</v>
+        <v>0.01835022575642796</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>0.9593770491803279</v>
       </c>
       <c r="F49">
-        <v>0.08932668211409132</v>
+        <v>0.1220891655420356</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>2.460918032786885</v>
       </c>
       <c r="F50">
-        <v>0.7100783079059018</v>
+        <v>0.9037699077885014</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>115.3231639344262</v>
       </c>
       <c r="F51">
-        <v>2.757708600965888</v>
+        <v>2.07516037307076</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>0.5625573770491803</v>
       </c>
       <c r="F52">
-        <v>0.0472746595035505</v>
+        <v>0.05723161316159362</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>28.54090163934426</v>
       </c>
       <c r="F53">
-        <v>0.8084231553124004</v>
+        <v>0.8316127199996822</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>3.292049180327869</v>
       </c>
       <c r="F54">
-        <v>0.1521062577774182</v>
+        <v>0.190635994330201</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>3.29127868852459</v>
       </c>
       <c r="F55">
-        <v>2.834024090209819</v>
+        <v>2.306458265279454</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>3.246557377049181</v>
       </c>
       <c r="F56">
-        <v>0.2781287021688996</v>
+        <v>0.247298791847078</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>0.7583442622950819</v>
       </c>
       <c r="F57">
-        <v>0.1322820380256849</v>
+        <v>0.101737136301814</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>0.6271639344262295</v>
       </c>
       <c r="F59">
-        <v>0.1329227413011573</v>
+        <v>0.09135747490524741</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>0.4671475409836066</v>
       </c>
       <c r="F60">
-        <v>0.18483917219311</v>
+        <v>0.1785407038479069</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>1.802147540983607</v>
       </c>
       <c r="F61">
-        <v>0.06010184937814645</v>
+        <v>0.08127529438419202</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>0.5147868852459017</v>
       </c>
       <c r="F62">
-        <v>0.1760815008477116</v>
+        <v>0.1522415865424555</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>28.09096721311476</v>
       </c>
       <c r="F63">
-        <v>1.875549970228211</v>
+        <v>2.382538722946213</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>3.126819672131147</v>
       </c>
       <c r="F64">
-        <v>0.1004863192467206</v>
+        <v>0.1065247101826628</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.009461510164979359</v>
+        <v>0.009506987478454621</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>0.04970491803278689</v>
       </c>
       <c r="F67">
-        <v>0.02260939027250208</v>
+        <v>0.02151005718077093</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>1.714803278688525</v>
       </c>
       <c r="F68">
-        <v>0.03857011846866305</v>
+        <v>0.04103964364642074</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45.45065573770492</v>
       </c>
       <c r="F69">
-        <v>1.866964782772334</v>
+        <v>1.982492318657226</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>3.111934426229508</v>
       </c>
       <c r="F70">
-        <v>0.1076648207580059</v>
+        <v>0.1161255401134119</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>71.79054098360656</v>
       </c>
       <c r="F71">
-        <v>1.45366148709213</v>
+        <v>1.484468733961409</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>13.48934426229508</v>
       </c>
       <c r="F72">
-        <v>0.4295476673793013</v>
+        <v>0.5161560496075248</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>0.03201639344262295</v>
       </c>
       <c r="F73">
-        <v>0.005905013841927007</v>
+        <v>0.009150005253267531</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>0.1072950819672131</v>
       </c>
       <c r="F74">
-        <v>0.04521454943316253</v>
+        <v>0.04509230550133669</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>5.772114754098361</v>
       </c>
       <c r="F75">
-        <v>0.3856308431693886</v>
+        <v>0.4781582164480851</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>3.197508196721312</v>
       </c>
       <c r="F76">
-        <v>0.2942235922770435</v>
+        <v>0.3626490045491643</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>

--- a/Output/Difference in moving averages16Oct.xlsx
+++ b/Output/Difference in moving averages16Oct.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Status of cases</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>31-day average of new deaths per million on end_date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>61-day average of new deaths per million on end_date</t>
         </is>
       </c>
     </row>
@@ -439,6 +449,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I2">
+        <v>0.0455483870967742</v>
+      </c>
+      <c r="J2">
+        <v>0.04672131147540984</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -473,6 +489,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I3">
+        <v>0.1588387096774194</v>
+      </c>
+      <c r="J3">
+        <v>0.1779016393442623</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -507,6 +529,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I4">
+        <v>0.09125806451612903</v>
+      </c>
+      <c r="J4">
+        <v>0.07027868852459017</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -541,6 +569,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I5">
+        <v>0.1663548387096774</v>
+      </c>
+      <c r="J5">
+        <v>0.1973934426229508</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -575,6 +609,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I6">
+        <v>0.002645161290322581</v>
+      </c>
+      <c r="J6">
+        <v>0.002688524590163935</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +649,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -643,6 +689,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I8">
+        <v>2.799451612903226</v>
+      </c>
+      <c r="J8">
+        <v>6.184934426229509</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -677,6 +729,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I9">
+        <v>0.01393548387096774</v>
+      </c>
+      <c r="J9">
+        <v>0.008655737704918034</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -711,6 +769,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -745,6 +809,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -779,6 +849,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I12">
+        <v>0.009709677419354839</v>
+      </c>
+      <c r="J12">
+        <v>0.01357377049180328</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -813,6 +889,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I13">
+        <v>1.972806451612903</v>
+      </c>
+      <c r="J13">
+        <v>1.326983606557377</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -847,6 +929,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.003393442622950819</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -881,6 +969,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I15">
+        <v>0.02164516129032258</v>
+      </c>
+      <c r="J15">
+        <v>0.016</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -915,6 +1009,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -949,6 +1049,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I17">
+        <v>0.02335483870967742</v>
+      </c>
+      <c r="J17">
+        <v>0.09504918032786885</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -983,6 +1089,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I18">
+        <v>0.001225806451612903</v>
+      </c>
+      <c r="J18">
+        <v>0.008098360655737704</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1017,6 +1129,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I19">
+        <v>0.005709677419354839</v>
+      </c>
+      <c r="J19">
+        <v>0.007409836065573771</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1051,6 +1169,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.03318032786885246</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1085,6 +1209,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I21">
+        <v>0.1345161290322581</v>
+      </c>
+      <c r="J21">
+        <v>0.151672131147541</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1119,6 +1249,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I22">
+        <v>0.5968709677419355</v>
+      </c>
+      <c r="J22">
+        <v>0.7582786885245901</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1153,6 +1289,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1187,6 +1329,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I24">
+        <v>0.08503225806451613</v>
+      </c>
+      <c r="J24">
+        <v>0.1163606557377049</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1221,6 +1369,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I25">
+        <v>0.2003225806451613</v>
+      </c>
+      <c r="J25">
+        <v>0.4341803278688525</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1255,6 +1409,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I26">
+        <v>0.01654838709677419</v>
+      </c>
+      <c r="J26">
+        <v>0.04162295081967214</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1289,6 +1449,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I27">
+        <v>0.01716129032258065</v>
+      </c>
+      <c r="J27">
+        <v>0.02491803278688524</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1323,6 +1489,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I28">
+        <v>0.01638709677419355</v>
+      </c>
+      <c r="J28">
+        <v>0.05831147540983606</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1357,6 +1529,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I29">
+        <v>0.03393548387096774</v>
+      </c>
+      <c r="J29">
+        <v>0.05031147540983606</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1391,6 +1569,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I30">
+        <v>1.51441935483871</v>
+      </c>
+      <c r="J30">
+        <v>1.630327868852459</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1425,6 +1609,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I31">
+        <v>0.7336451612903225</v>
+      </c>
+      <c r="J31">
+        <v>0.738655737704918</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1459,6 +1649,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I32">
+        <v>0.109741935483871</v>
+      </c>
+      <c r="J32">
+        <v>0.1015245901639344</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1493,6 +1689,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I33">
+        <v>0.197741935483871</v>
+      </c>
+      <c r="J33">
+        <v>-0.9850163934426229</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1527,6 +1729,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1561,6 +1769,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I35">
+        <v>0.1355806451612903</v>
+      </c>
+      <c r="J35">
+        <v>0.1301311475409836</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1595,6 +1809,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1629,6 +1849,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I37">
+        <v>0.02787096774193548</v>
+      </c>
+      <c r="J37">
+        <v>0.04190163934426229</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1663,6 +1889,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I38">
+        <v>0.005032258064516129</v>
+      </c>
+      <c r="J38">
+        <v>0.02052459016393442</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1697,6 +1929,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I39">
+        <v>0.00632258064516129</v>
+      </c>
+      <c r="J39">
+        <v>0.005622950819672131</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1731,6 +1969,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I40">
+        <v>0.01387096774193548</v>
+      </c>
+      <c r="J40">
+        <v>0.02114754098360656</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1765,6 +2009,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I41">
+        <v>3.198612903225806</v>
+      </c>
+      <c r="J41">
+        <v>2.580508196721312</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1799,6 +2049,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1833,6 +2089,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I43">
+        <v>1.012129032258065</v>
+      </c>
+      <c r="J43">
+        <v>0.9504918032786885</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1867,6 +2129,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I44">
+        <v>0.0392258064516129</v>
+      </c>
+      <c r="J44">
+        <v>0.02832786885245902</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1901,6 +2169,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I45">
+        <v>0.4345806451612903</v>
+      </c>
+      <c r="J45">
+        <v>0.228672131147541</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1935,6 +2209,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I46">
+        <v>0.3698064516129032</v>
+      </c>
+      <c r="J46">
+        <v>0.3331475409836066</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1969,6 +2249,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I47">
+        <v>0.04870967741935484</v>
+      </c>
+      <c r="J47">
+        <v>0.06436065573770491</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2003,6 +2289,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2037,6 +2329,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I49">
+        <v>0.005290322580645161</v>
+      </c>
+      <c r="J49">
+        <v>0.01139344262295082</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2071,6 +2369,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I50">
+        <v>0.03390322580645162</v>
+      </c>
+      <c r="J50">
+        <v>0.03367213114754098</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2105,6 +2409,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I51">
+        <v>1.378322580645161</v>
+      </c>
+      <c r="J51">
+        <v>1.13744262295082</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2139,6 +2449,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I52">
+        <v>0.003612903225806452</v>
+      </c>
+      <c r="J52">
+        <v>0.007344262295081967</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2173,6 +2489,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I53">
+        <v>0.5496451612903226</v>
+      </c>
+      <c r="J53">
+        <v>0.5830163934426229</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2207,6 +2529,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I54">
+        <v>0.02732258064516129</v>
+      </c>
+      <c r="J54">
+        <v>0.03155737704918032</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2241,6 +2569,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2275,6 +2609,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I56">
+        <v>0.03670967741935484</v>
+      </c>
+      <c r="J56">
+        <v>0.06363934426229508</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2309,6 +2649,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I57">
+        <v>0.004032258064516129</v>
+      </c>
+      <c r="J57">
+        <v>0.00819672131147541</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2340,6 +2686,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2374,6 +2726,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I59">
+        <v>0.002032258064516129</v>
+      </c>
+      <c r="J59">
+        <v>0.00619672131147541</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2408,6 +2766,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I60">
+        <v>0.01725806451612903</v>
+      </c>
+      <c r="J60">
+        <v>0.01168852459016393</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2442,6 +2806,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.001540983606557377</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2476,6 +2846,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.01419672131147541</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2510,6 +2886,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I63">
+        <v>0.3892903225806452</v>
+      </c>
+      <c r="J63">
+        <v>0.6500327868852459</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2544,6 +2926,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I64">
+        <v>0.1490645161290323</v>
+      </c>
+      <c r="J64">
+        <v>0.1665737704918033</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2578,6 +2966,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I65">
+        <v>0.02709677419354839</v>
+      </c>
+      <c r="J65">
+        <v>0.02754098360655738</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2612,6 +3006,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2646,6 +3046,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2680,6 +3086,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I68">
+        <v>0.04290322580645161</v>
+      </c>
+      <c r="J68">
+        <v>0.04757377049180328</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2714,6 +3126,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I69">
+        <v>1.078161290322581</v>
+      </c>
+      <c r="J69">
+        <v>0.6352950819672131</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2748,6 +3166,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I70">
+        <v>0.029</v>
+      </c>
+      <c r="J70">
+        <v>0.02985245901639344</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2782,6 +3206,12 @@
           <t>Increasing</t>
         </is>
       </c>
+      <c r="I71">
+        <v>1.54241935483871</v>
+      </c>
+      <c r="J71">
+        <v>1.221295081967213</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2816,6 +3246,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I72">
+        <v>0.1148064516129032</v>
+      </c>
+      <c r="J72">
+        <v>0.1425245901639344</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2850,6 +3286,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.002180327868852459</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2884,6 +3326,12 @@
           <t>Uncertain</t>
         </is>
       </c>
+      <c r="I74">
+        <v>0.01532258064516129</v>
+      </c>
+      <c r="J74">
+        <v>0.03757377049180328</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2918,6 +3366,12 @@
           <t>Decreasing</t>
         </is>
       </c>
+      <c r="I75">
+        <v>0.0455483870967742</v>
+      </c>
+      <c r="J75">
+        <v>0.07662295081967213</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2951,6 +3405,12 @@
         <is>
           <t>Decreasing</t>
         </is>
+      </c>
+      <c r="I76">
+        <v>0.01512903225806452</v>
+      </c>
+      <c r="J76">
+        <v>0.1113934426229508</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Difference in moving averages16Oct.xlsx
+++ b/Output/Difference in moving averages16Oct.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -377,27 +377,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>incgroup</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>end_date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31-day average of new cases per million on end_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>61-day average of new cases per million on end_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Standard Error 31-day average series</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>incgroup</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -427,22 +427,22 @@
           <t>AFG</t>
         </is>
       </c>
-      <c r="C2" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D2" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E2">
         <v>1.003516129032258</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.04227868852459</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.6646505787510942</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -459,390 +459,390 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DZA</t>
-        </is>
-      </c>
-      <c r="C3" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D3">
-        <v>3.884774193548387</v>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D3" s="2">
+        <v>44120</v>
       </c>
       <c r="E3">
-        <v>5.848393442622951</v>
+        <v>0.9536451612903226</v>
       </c>
       <c r="F3">
-        <v>0.4683578650224575</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.8516557377049181</v>
+      </c>
+      <c r="G3">
+        <v>0.03769593259332928</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I3">
-        <v>0.1588387096774194</v>
+        <v>0.01393548387096774</v>
       </c>
       <c r="J3">
-        <v>0.1779016393442623</v>
+        <v>0.008655737704918034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AGO</t>
-        </is>
-      </c>
-      <c r="C4" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D4">
-        <v>3.394064516129032</v>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <v>44120</v>
       </c>
       <c r="E4">
-        <v>2.491</v>
+        <v>0.1545806451612903</v>
       </c>
       <c r="F4">
-        <v>0.04717198440667601</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.1612459016393443</v>
+      </c>
+      <c r="G4">
+        <v>0.02576761226282361</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I4">
-        <v>0.09125806451612903</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07027868852459017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BGD</t>
-        </is>
-      </c>
-      <c r="C5" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D5">
-        <v>8.858709677419355</v>
+          <t>CAF</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D5" s="2">
+        <v>44120</v>
       </c>
       <c r="E5">
-        <v>10.95295081967213</v>
+        <v>0.5542903225806452</v>
       </c>
       <c r="F5">
-        <v>0.8020266219923539</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.6890163934426229</v>
+      </c>
+      <c r="G5">
+        <v>0.8833403842787558</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I5">
-        <v>0.1663548387096774</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1973934426229508</v>
+        <v>0.003393442622950819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BEN</t>
-        </is>
-      </c>
-      <c r="C6" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D6">
-        <v>0.6093225806451613</v>
+          <t>TCD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D6" s="2">
+        <v>44120</v>
       </c>
       <c r="E6">
-        <v>0.5855245901639344</v>
+        <v>0.520483870967742</v>
       </c>
       <c r="F6">
-        <v>0.1269449380071233</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.3973114754098361</v>
+      </c>
+      <c r="G6">
+        <v>0.05238726726713257</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I6">
-        <v>0.002645161290322581</v>
+        <v>0.02164516129032258</v>
       </c>
       <c r="J6">
-        <v>0.002688524590163935</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Democratic Republic of Congo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BTN</t>
-        </is>
-      </c>
-      <c r="C7" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D7">
-        <v>2.926451612903226</v>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D7" s="2">
+        <v>44120</v>
       </c>
       <c r="E7">
-        <v>3.888</v>
+        <v>0.2088387096774194</v>
       </c>
       <c r="F7">
-        <v>0.1514945877505779</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.2437377049180328</v>
+      </c>
+      <c r="G7">
+        <v>0.05957478470628003</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005709677419354839</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.007409836065573771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOL</t>
-        </is>
-      </c>
-      <c r="C8" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D8">
-        <v>32.33264516129032</v>
+          <t>ERI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D8" s="2">
+        <v>44120</v>
       </c>
       <c r="E8">
-        <v>56.41845901639344</v>
+        <v>0.4821290322580645</v>
       </c>
       <c r="F8">
-        <v>5.231632067231535</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.596344262295082</v>
+      </c>
+      <c r="G8">
+        <v>0.07026389679910525</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I8">
-        <v>2.799451612903226</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6.184934426229509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BFA</t>
-        </is>
-      </c>
-      <c r="C9" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D9">
-        <v>0.9536451612903226</v>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D9" s="2">
+        <v>44120</v>
       </c>
       <c r="E9">
-        <v>0.8516557377049181</v>
+        <v>6.280483870967742</v>
       </c>
       <c r="F9">
-        <v>0.03769593259332928</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>8.309786885245902</v>
+      </c>
+      <c r="G9">
+        <v>0.2782680759682457</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I9">
-        <v>0.01393548387096774</v>
+        <v>0.08503225806451613</v>
       </c>
       <c r="J9">
-        <v>0.008655737704918034</v>
+        <v>0.1163606557377049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BDI</t>
-        </is>
-      </c>
-      <c r="C10" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D10">
-        <v>0.1545806451612903</v>
+          <t>GMB</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D10" s="2">
+        <v>44120</v>
       </c>
       <c r="E10">
-        <v>0.1612459016393443</v>
+        <v>3.190193548387097</v>
       </c>
       <c r="F10">
-        <v>0.02576761226282361</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>13.26170491803279</v>
+      </c>
+      <c r="G10">
+        <v>1.385943623853681</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2003225806451613</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4341803278688525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KHM</t>
-        </is>
-      </c>
-      <c r="C11" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D11">
-        <v>0.01548387096774194</v>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D11" s="2">
+        <v>44120</v>
       </c>
       <c r="E11">
-        <v>0.009836065573770491</v>
+        <v>2.932870967741935</v>
       </c>
       <c r="F11">
-        <v>0.0105117177807478</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>3.635049180327869</v>
+      </c>
+      <c r="G11">
+        <v>0.1103406614627537</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01716129032258065</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02491803278688524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CMR</t>
-        </is>
-      </c>
-      <c r="C12" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D12">
-        <v>1.474</v>
+          <t>GNB</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D12" s="2">
+        <v>44120</v>
       </c>
       <c r="E12">
-        <v>1.835377049180328</v>
+        <v>1.803064516129032</v>
       </c>
       <c r="F12">
-        <v>0.3423210439033681</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>2.23244262295082</v>
+      </c>
+      <c r="G12">
+        <v>0.4565065171700148</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -850,79 +850,79 @@
         </is>
       </c>
       <c r="I12">
-        <v>0.009709677419354839</v>
+        <v>0.01638709677419355</v>
       </c>
       <c r="J12">
-        <v>0.01357377049180328</v>
+        <v>0.05831147540983606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cape Verde</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="C13" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D13">
-        <v>151.1403870967742</v>
+          <t>HTI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D13" s="2">
+        <v>44120</v>
       </c>
       <c r="E13">
-        <v>126.2263114754098</v>
+        <v>1.205096774193548</v>
       </c>
       <c r="F13">
-        <v>1.19643753588726</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>1.572819672131148</v>
+      </c>
+      <c r="G13">
+        <v>0.5597305662458437</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I13">
-        <v>1.972806451612903</v>
+        <v>0.03393548387096774</v>
       </c>
       <c r="J13">
-        <v>1.326983606557377</v>
+        <v>0.05031147540983606</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CAF</t>
-        </is>
-      </c>
-      <c r="C14" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D14">
-        <v>0.5542903225806452</v>
+          <t>LBR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D14" s="2">
+        <v>44120</v>
       </c>
       <c r="E14">
-        <v>0.6890163934426229</v>
+        <v>0.3381290322580645</v>
       </c>
       <c r="F14">
-        <v>0.8833403842787558</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.3792786885245902</v>
+      </c>
+      <c r="G14">
+        <v>0.1623236413003281</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -933,76 +933,76 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.003393442622950819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TCD</t>
-        </is>
-      </c>
-      <c r="C15" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D15">
-        <v>0.520483870967742</v>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>44120</v>
       </c>
       <c r="E15">
-        <v>0.3973114754098361</v>
+        <v>1.147354838709678</v>
       </c>
       <c r="F15">
-        <v>0.05238726726713257</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>1.793754098360656</v>
+      </c>
+      <c r="G15">
+        <v>0.4841607398356109</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I15">
-        <v>0.02164516129032258</v>
+        <v>0.02787096774193548</v>
       </c>
       <c r="J15">
-        <v>0.016</v>
+        <v>0.04190163934426229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COM</t>
-        </is>
-      </c>
-      <c r="C16" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D16">
-        <v>1.483870967741936</v>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>44120</v>
       </c>
       <c r="E16">
-        <v>1.753262295081967</v>
+        <v>0.2344516129032258</v>
       </c>
       <c r="F16">
-        <v>0.2751265262510936</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.6941639344262295</v>
+      </c>
+      <c r="G16">
+        <v>0.241086011133077</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1010,119 +1010,119 @@
         </is>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005032258064516129</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02052459016393442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COG</t>
-        </is>
-      </c>
-      <c r="C17" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D17">
-        <v>1.297774193548387</v>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D17" s="2">
+        <v>44120</v>
       </c>
       <c r="E17">
-        <v>4.191852459016394</v>
+        <v>0.6898387096774193</v>
       </c>
       <c r="F17">
-        <v>0.4802058222636689</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.6104262295081967</v>
+      </c>
+      <c r="G17">
+        <v>0.04881501539185885</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I17">
-        <v>0.02335483870967742</v>
+        <v>0.00632258064516129</v>
       </c>
       <c r="J17">
-        <v>0.09504918032786885</v>
+        <v>0.005622950819672131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CIV</t>
-        </is>
-      </c>
-      <c r="C18" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D18">
-        <v>1.456451612903226</v>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D18" s="2">
+        <v>44120</v>
       </c>
       <c r="E18">
-        <v>2.028508196721312</v>
+        <v>5.217032258064516</v>
       </c>
       <c r="F18">
-        <v>0.447937895704188</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>4.062737704918033</v>
+      </c>
+      <c r="G18">
+        <v>0.1068795762173563</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I18">
-        <v>0.001225806451612903</v>
+        <v>0.0392258064516129</v>
       </c>
       <c r="J18">
-        <v>0.008098360655737704</v>
+        <v>0.02832786885245902</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Democratic Republic of Congo</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="C19" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D19">
-        <v>0.2088387096774194</v>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D19" s="2">
+        <v>44120</v>
       </c>
       <c r="E19">
-        <v>0.2437377049180328</v>
+        <v>0.03596774193548388</v>
       </c>
       <c r="F19">
-        <v>0.05957478470628003</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.02844262295081967</v>
+      </c>
+      <c r="G19">
+        <v>0.01835022575642796</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1130,79 +1130,79 @@
         </is>
       </c>
       <c r="I19">
-        <v>0.005709677419354839</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007409836065573771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="C20" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D20">
-        <v>1.53441935483871</v>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D20" s="2">
+        <v>44120</v>
       </c>
       <c r="E20">
-        <v>1.260918032786885</v>
+        <v>0.874225806451613</v>
       </c>
       <c r="F20">
-        <v>3.540284968303395</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>3.292049180327869</v>
+      </c>
+      <c r="G20">
+        <v>0.190635994330201</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02732258064516129</v>
       </c>
       <c r="J20">
-        <v>0.03318032786885246</v>
+        <v>0.03155737704918032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EGY</t>
-        </is>
-      </c>
-      <c r="C21" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D21">
-        <v>1.215483870967742</v>
+          <t>SLE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D21" s="2">
+        <v>44120</v>
       </c>
       <c r="E21">
-        <v>1.393229508196721</v>
+        <v>0.8654516129032258</v>
       </c>
       <c r="F21">
-        <v>0.6544366865175697</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.7583442622950819</v>
+      </c>
+      <c r="G21">
+        <v>0.101737136301814</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1210,79 +1210,79 @@
         </is>
       </c>
       <c r="I21">
-        <v>0.1345161290322581</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="J21">
-        <v>0.151672131147541</v>
+        <v>0.00819672131147541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SLV</t>
-        </is>
-      </c>
-      <c r="C22" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D22">
-        <v>19.75903225806452</v>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D22" s="2">
+        <v>44120</v>
       </c>
       <c r="E22">
-        <v>21.33659016393442</v>
+        <v>0.9641290322580646</v>
       </c>
       <c r="F22">
-        <v>2.446938567837631</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.6271639344262295</v>
+      </c>
+      <c r="G22">
+        <v>0.09135747490524741</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I22">
-        <v>0.5968709677419355</v>
+        <v>0.002032258064516129</v>
       </c>
       <c r="J22">
-        <v>0.7582786885245901</v>
+        <v>0.00619672131147541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ERI</t>
-        </is>
-      </c>
-      <c r="C23" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D23">
-        <v>0.4821290322580645</v>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D23" s="2">
+        <v>44120</v>
       </c>
       <c r="E23">
-        <v>0.596344262295082</v>
+        <v>0.634</v>
       </c>
       <c r="F23">
-        <v>0.07026389679910525</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.4671475409836066</v>
+      </c>
+      <c r="G23">
+        <v>0.1785407038479069</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1290,39 +1290,39 @@
         </is>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01725806451612903</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01168852459016393</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ETH</t>
-        </is>
-      </c>
-      <c r="C24" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D24">
-        <v>6.280483870967742</v>
+          <t>SDN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D24" s="2">
+        <v>44120</v>
       </c>
       <c r="E24">
-        <v>8.309786885245902</v>
+        <v>0.114741935483871</v>
       </c>
       <c r="F24">
-        <v>0.2782680759682457</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.5147868852459017</v>
+      </c>
+      <c r="G24">
+        <v>0.1522415865424555</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1330,39 +1330,39 @@
         </is>
       </c>
       <c r="I24">
-        <v>0.08503225806451613</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1163606557377049</v>
+        <v>0.01419672131147541</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GMB</t>
-        </is>
-      </c>
-      <c r="C25" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D25">
-        <v>3.190193548387097</v>
+          <t>SYR</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D25" s="2">
+        <v>44120</v>
       </c>
       <c r="E25">
-        <v>13.26170491803279</v>
+        <v>2.497612903225806</v>
       </c>
       <c r="F25">
-        <v>1.385943623853681</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>3.126819672131147</v>
+      </c>
+      <c r="G25">
+        <v>0.1065247101826628</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1370,39 +1370,39 @@
         </is>
       </c>
       <c r="I25">
-        <v>0.2003225806451613</v>
+        <v>0.1490645161290323</v>
       </c>
       <c r="J25">
-        <v>0.4341803278688525</v>
+        <v>0.1665737704918033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GHA</t>
-        </is>
-      </c>
-      <c r="C26" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D26">
-        <v>1.632064516129032</v>
+          <t>TJK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D26" s="2">
+        <v>44120</v>
       </c>
       <c r="E26">
-        <v>2.61844262295082</v>
+        <v>4.349451612903226</v>
       </c>
       <c r="F26">
-        <v>0.8727532659728571</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>4.030655737704918</v>
+      </c>
+      <c r="G26">
+        <v>0.4173692830689937</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1410,39 +1410,39 @@
         </is>
       </c>
       <c r="I26">
-        <v>0.01654838709677419</v>
+        <v>0.02709677419354839</v>
       </c>
       <c r="J26">
-        <v>0.04162295081967214</v>
+        <v>0.02754098360655738</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GIN</t>
-        </is>
-      </c>
-      <c r="C27" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D27">
-        <v>2.932870967741935</v>
+          <t>TGO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D27" s="2">
+        <v>44120</v>
       </c>
       <c r="E27">
-        <v>3.635049180327869</v>
+        <v>1.628677419354839</v>
       </c>
       <c r="F27">
-        <v>0.1103406614627537</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>1.714803278688525</v>
+      </c>
+      <c r="G27">
+        <v>0.04103964364642074</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="I27">
-        <v>0.01716129032258065</v>
+        <v>0.04290322580645161</v>
       </c>
       <c r="J27">
-        <v>0.02491803278688524</v>
+        <v>0.04757377049180328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GNB</t>
-        </is>
-      </c>
-      <c r="C28" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D28">
-        <v>1.803064516129032</v>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D28" s="2">
+        <v>44120</v>
       </c>
       <c r="E28">
-        <v>2.23244262295082</v>
+        <v>3.75041935483871</v>
       </c>
       <c r="F28">
-        <v>0.4565065171700148</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>3.111934426229508</v>
+      </c>
+      <c r="G28">
+        <v>0.1161255401134119</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I28">
-        <v>0.01638709677419355</v>
+        <v>0.029</v>
       </c>
       <c r="J28">
-        <v>0.05831147540983606</v>
+        <v>0.02985245901639344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HTI</t>
-        </is>
-      </c>
-      <c r="C29" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D29">
-        <v>1.205096774193548</v>
+          <t>YEM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Low income</t>
+        </is>
+      </c>
+      <c r="D29" s="2">
+        <v>44120</v>
       </c>
       <c r="E29">
-        <v>1.572819672131148</v>
+        <v>0.0477741935483871</v>
       </c>
       <c r="F29">
-        <v>0.5597305662458437</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.1072950819672131</v>
+      </c>
+      <c r="G29">
+        <v>0.04509230550133669</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1530,159 +1530,159 @@
         </is>
       </c>
       <c r="I29">
-        <v>0.03393548387096774</v>
+        <v>0.01532258064516129</v>
       </c>
       <c r="J29">
-        <v>0.05031147540983606</v>
+        <v>0.03757377049180328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HND</t>
-        </is>
-      </c>
-      <c r="C30" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D30">
-        <v>56.89435483870967</v>
+          <t>DZA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D30" s="2">
+        <v>44120</v>
       </c>
       <c r="E30">
-        <v>59.76685245901639</v>
+        <v>3.884774193548387</v>
       </c>
       <c r="F30">
-        <v>2.393757439356828</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>5.848393442622951</v>
+      </c>
+      <c r="G30">
+        <v>0.4683578650224575</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I30">
-        <v>1.51441935483871</v>
+        <v>0.1588387096774194</v>
       </c>
       <c r="J30">
-        <v>1.630327868852459</v>
+        <v>0.1779016393442623</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C31" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D31">
-        <v>57.04116129032258</v>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D31" s="2">
+        <v>44120</v>
       </c>
       <c r="E31">
-        <v>56.79218032786886</v>
+        <v>3.394064516129032</v>
       </c>
       <c r="F31">
-        <v>0.8392335354877263</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>2.491</v>
+      </c>
+      <c r="G31">
+        <v>0.04717198440667601</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I31">
-        <v>0.7336451612903225</v>
+        <v>0.09125806451612903</v>
       </c>
       <c r="J31">
-        <v>0.738655737704918</v>
+        <v>0.07027868852459017</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KEN</t>
-        </is>
-      </c>
-      <c r="C32" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D32">
-        <v>4.191032258064516</v>
+          <t>BGD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D32" s="2">
+        <v>44120</v>
       </c>
       <c r="E32">
-        <v>4.052967213114754</v>
+        <v>8.858709677419355</v>
       </c>
       <c r="F32">
-        <v>0.441530764366967</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>10.95295081967213</v>
+      </c>
+      <c r="G32">
+        <v>0.8020266219923539</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I32">
-        <v>0.109741935483871</v>
+        <v>0.1663548387096774</v>
       </c>
       <c r="J32">
-        <v>0.1015245901639344</v>
+        <v>0.1973934426229508</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C33" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D33">
-        <v>30.12109677419355</v>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D33" s="2">
+        <v>44120</v>
       </c>
       <c r="E33">
-        <v>23.02652459016393</v>
+        <v>0.6093225806451613</v>
       </c>
       <c r="F33">
-        <v>7.590288217990578</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.5855245901639344</v>
+      </c>
+      <c r="G33">
+        <v>0.1269449380071233</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1690,39 +1690,39 @@
         </is>
       </c>
       <c r="I33">
-        <v>0.197741935483871</v>
+        <v>0.002645161290322581</v>
       </c>
       <c r="J33">
-        <v>-0.9850163934426229</v>
+        <v>0.002688524590163935</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LAO</t>
-        </is>
-      </c>
-      <c r="C34" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
+          <t>BTN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D34" s="2">
+        <v>44120</v>
       </c>
       <c r="E34">
-        <v>0.006754098360655738</v>
+        <v>2.926451612903226</v>
       </c>
       <c r="F34">
-        <v>0.001370605970829375</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>3.888</v>
+      </c>
+      <c r="G34">
+        <v>0.1514945877505779</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1739,70 +1739,70 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LSO</t>
-        </is>
-      </c>
-      <c r="C35" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D35">
-        <v>8.854064516129032</v>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D35" s="2">
+        <v>44120</v>
       </c>
       <c r="E35">
-        <v>7.116737704918033</v>
+        <v>32.33264516129032</v>
       </c>
       <c r="F35">
-        <v>0.3435367241464514</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>56.41845901639344</v>
+      </c>
+      <c r="G35">
+        <v>5.231632067231535</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I35">
-        <v>0.1355806451612903</v>
+        <v>2.799451612903226</v>
       </c>
       <c r="J35">
-        <v>0.1301311475409836</v>
+        <v>6.184934426229509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LBR</t>
-        </is>
-      </c>
-      <c r="C36" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D36">
-        <v>0.3381290322580645</v>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D36" s="2">
+        <v>44120</v>
       </c>
       <c r="E36">
-        <v>0.3792786885245902</v>
+        <v>0.01548387096774194</v>
       </c>
       <c r="F36">
-        <v>0.1623236413003281</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.009836065573770491</v>
+      </c>
+      <c r="G36">
+        <v>0.0105117177807478</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1819,30 +1819,30 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MDG</t>
-        </is>
-      </c>
-      <c r="C37" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D37">
-        <v>1.147354838709678</v>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D37" s="2">
+        <v>44120</v>
       </c>
       <c r="E37">
-        <v>1.793754098360656</v>
+        <v>1.474</v>
       </c>
       <c r="F37">
-        <v>0.4841607398356109</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>1.835377049180328</v>
+      </c>
+      <c r="G37">
+        <v>0.3423210439033681</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1850,79 +1850,79 @@
         </is>
       </c>
       <c r="I37">
-        <v>0.02787096774193548</v>
+        <v>0.009709677419354839</v>
       </c>
       <c r="J37">
-        <v>0.04190163934426229</v>
+        <v>0.01357377049180328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Cape Verde</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MWI</t>
-        </is>
-      </c>
-      <c r="C38" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D38">
-        <v>0.2344516129032258</v>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D38" s="2">
+        <v>44120</v>
       </c>
       <c r="E38">
-        <v>0.6941639344262295</v>
+        <v>151.1403870967742</v>
       </c>
       <c r="F38">
-        <v>0.241086011133077</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>126.2263114754098</v>
+      </c>
+      <c r="G38">
+        <v>1.19643753588726</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I38">
-        <v>0.005032258064516129</v>
+        <v>1.972806451612903</v>
       </c>
       <c r="J38">
-        <v>0.02052459016393442</v>
+        <v>1.326983606557377</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MLI</t>
-        </is>
-      </c>
-      <c r="C39" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D39">
-        <v>0.6898387096774193</v>
+          <t>COM</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D39" s="2">
+        <v>44120</v>
       </c>
       <c r="E39">
-        <v>0.6104262295081967</v>
+        <v>1.483870967741936</v>
       </c>
       <c r="F39">
-        <v>0.04881501539185885</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>1.753262295081967</v>
+      </c>
+      <c r="G39">
+        <v>0.2751265262510936</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1930,119 +1930,119 @@
         </is>
       </c>
       <c r="I39">
-        <v>0.00632258064516129</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.005622950819672131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MRT</t>
-        </is>
-      </c>
-      <c r="C40" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D40">
-        <v>1.873193548387097</v>
+          <t>COG</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D40" s="2">
+        <v>44120</v>
       </c>
       <c r="E40">
-        <v>3.324754098360656</v>
+        <v>1.297774193548387</v>
       </c>
       <c r="F40">
-        <v>1.362676272649147</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>4.191852459016394</v>
+      </c>
+      <c r="G40">
+        <v>0.4802058222636689</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I40">
-        <v>0.01387096774193548</v>
+        <v>0.02335483870967742</v>
       </c>
       <c r="J40">
-        <v>0.02114754098360656</v>
+        <v>0.09504918032786885</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C41" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D41">
-        <v>174.8781290322581</v>
+          <t>CIV</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D41" s="2">
+        <v>44120</v>
       </c>
       <c r="E41">
-        <v>142.929868852459</v>
+        <v>1.456451612903226</v>
       </c>
       <c r="F41">
-        <v>1.766255866850484</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>2.028508196721312</v>
+      </c>
+      <c r="G41">
+        <v>0.447937895704188</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I41">
-        <v>3.198612903225806</v>
+        <v>0.001225806451612903</v>
       </c>
       <c r="J41">
-        <v>2.580508196721312</v>
+        <v>0.008098360655737704</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MNG</t>
-        </is>
-      </c>
-      <c r="C42" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D42">
-        <v>0.08854838709677419</v>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D42" s="2">
+        <v>44120</v>
       </c>
       <c r="E42">
-        <v>0.11</v>
+        <v>1.53441935483871</v>
       </c>
       <c r="F42">
-        <v>0.05205618712337947</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>1.260918032786885</v>
+      </c>
+      <c r="G42">
+        <v>3.540284968303395</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2053,196 +2053,196 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.03318032786885246</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAR</t>
-        </is>
-      </c>
-      <c r="C43" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D43">
-        <v>65.93709677419355</v>
+          <t>EGY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D43" s="2">
+        <v>44120</v>
       </c>
       <c r="E43">
-        <v>54.4662131147541</v>
+        <v>1.215483870967742</v>
       </c>
       <c r="F43">
-        <v>1.304461570022105</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>1.393229508196721</v>
+      </c>
+      <c r="G43">
+        <v>0.6544366865175697</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I43">
-        <v>1.012129032258065</v>
+        <v>0.1345161290322581</v>
       </c>
       <c r="J43">
-        <v>0.9504918032786885</v>
+        <v>0.151672131147541</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOZ</t>
-        </is>
-      </c>
-      <c r="C44" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D44">
-        <v>5.217032258064516</v>
+          <t>SLV</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D44" s="2">
+        <v>44120</v>
       </c>
       <c r="E44">
-        <v>4.062737704918033</v>
+        <v>19.75903225806452</v>
       </c>
       <c r="F44">
-        <v>0.1068795762173563</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>21.33659016393442</v>
+      </c>
+      <c r="G44">
+        <v>2.446938567837631</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I44">
-        <v>0.0392258064516129</v>
+        <v>0.5968709677419355</v>
       </c>
       <c r="J44">
-        <v>0.02832786885245902</v>
+        <v>0.7582786885245901</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MMR</t>
-        </is>
-      </c>
-      <c r="C45" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D45">
-        <v>17.2241935483871</v>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D45" s="2">
+        <v>44120</v>
       </c>
       <c r="E45">
-        <v>9.634508196721312</v>
+        <v>1.632064516129032</v>
       </c>
       <c r="F45">
-        <v>0.4574030832463262</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>2.61844262295082</v>
+      </c>
+      <c r="G45">
+        <v>0.8727532659728571</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I45">
-        <v>0.4345806451612903</v>
+        <v>0.01654838709677419</v>
       </c>
       <c r="J45">
-        <v>0.228672131147541</v>
+        <v>0.04162295081967214</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NPL</t>
-        </is>
-      </c>
-      <c r="C46" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D46">
-        <v>73.53064516129032</v>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D46" s="2">
+        <v>44120</v>
       </c>
       <c r="E46">
-        <v>53.8588524590164</v>
+        <v>56.89435483870967</v>
       </c>
       <c r="F46">
-        <v>1.343573772443284</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>59.76685245901639</v>
+      </c>
+      <c r="G46">
+        <v>2.393757439356828</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I46">
-        <v>0.3698064516129032</v>
+        <v>1.51441935483871</v>
       </c>
       <c r="J46">
-        <v>0.3331475409836066</v>
+        <v>1.630327868852459</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="C47" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D47">
-        <v>2.605161290322581</v>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D47" s="2">
+        <v>44120</v>
       </c>
       <c r="E47">
-        <v>3.063622950819672</v>
+        <v>57.04116129032258</v>
       </c>
       <c r="F47">
-        <v>0.3994333840854735</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>56.79218032786886</v>
+      </c>
+      <c r="G47">
+        <v>0.8392335354877263</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2250,39 +2250,39 @@
         </is>
       </c>
       <c r="I47">
-        <v>0.04870967741935484</v>
+        <v>0.7336451612903225</v>
       </c>
       <c r="J47">
-        <v>0.06436065573770491</v>
+        <v>0.738655737704918</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NER</t>
-        </is>
-      </c>
-      <c r="C48" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D48">
-        <v>0.03596774193548388</v>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D48" s="2">
+        <v>44120</v>
       </c>
       <c r="E48">
-        <v>0.02844262295081967</v>
+        <v>4.191032258064516</v>
       </c>
       <c r="F48">
-        <v>0.01835022575642796</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>4.052967213114754</v>
+      </c>
+      <c r="G48">
+        <v>0.441530764366967</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2290,396 +2290,399 @@
         </is>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.109741935483871</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.1015245901639344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NGA</t>
-        </is>
-      </c>
-      <c r="C49" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D49">
-        <v>0.6956774193548387</v>
+          <t>KGZ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D49" s="2">
+        <v>44120</v>
       </c>
       <c r="E49">
-        <v>0.9593770491803279</v>
+        <v>30.12109677419355</v>
       </c>
       <c r="F49">
-        <v>0.1220891655420356</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>23.02652459016393</v>
+      </c>
+      <c r="G49">
+        <v>7.590288217990578</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I49">
-        <v>0.005290322580645161</v>
+        <v>0.197741935483871</v>
       </c>
       <c r="J49">
-        <v>0.01139344262295082</v>
+        <v>-0.9850163934426229</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PAK</t>
-        </is>
-      </c>
-      <c r="C50" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D50">
-        <v>2.840774193548387</v>
+          <t>LAO</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D50" s="2">
+        <v>44120</v>
       </c>
       <c r="E50">
-        <v>2.460918032786885</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.9037699077885014</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0.006754098360655738</v>
+      </c>
+      <c r="G50">
+        <v>0.001370605970829375</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I50">
-        <v>0.03390322580645162</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.03367213114754098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PSE</t>
-        </is>
-      </c>
-      <c r="C51" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D51">
-        <v>108.4012580645161</v>
+          <t>LSO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D51" s="2">
+        <v>44120</v>
       </c>
       <c r="E51">
-        <v>115.3231639344262</v>
+        <v>8.854064516129032</v>
       </c>
       <c r="F51">
-        <v>2.07516037307076</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>7.116737704918033</v>
+      </c>
+      <c r="G51">
+        <v>0.3435367241464514</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I51">
-        <v>1.378322580645161</v>
+        <v>0.1355806451612903</v>
       </c>
       <c r="J51">
-        <v>1.13744262295082</v>
+        <v>0.1301311475409836</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PNG</t>
-        </is>
-      </c>
-      <c r="C52" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D52">
-        <v>0.2416129032258065</v>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D52" s="2">
+        <v>44120</v>
       </c>
       <c r="E52">
-        <v>0.5625573770491803</v>
+        <v>1.873193548387097</v>
       </c>
       <c r="F52">
-        <v>0.05723161316159362</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>3.324754098360656</v>
+      </c>
+      <c r="G52">
+        <v>1.362676272649147</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I52">
-        <v>0.003612903225806452</v>
+        <v>0.01387096774193548</v>
       </c>
       <c r="J52">
-        <v>0.007344262295081967</v>
+        <v>0.02114754098360656</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PHL</t>
-        </is>
-      </c>
-      <c r="C53" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D53">
-        <v>24.37725806451613</v>
+          <t>MDA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D53" s="2">
+        <v>44120</v>
       </c>
       <c r="E53">
-        <v>28.54090163934426</v>
+        <v>174.8781290322581</v>
       </c>
       <c r="F53">
-        <v>0.8316127199996822</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>142.929868852459</v>
+      </c>
+      <c r="G53">
+        <v>1.766255866850484</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I53">
-        <v>0.5496451612903226</v>
+        <v>3.198612903225806</v>
       </c>
       <c r="J53">
-        <v>0.5830163934426229</v>
+        <v>2.580508196721312</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RWA</t>
-        </is>
-      </c>
-      <c r="C54" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D54">
-        <v>0.874225806451613</v>
+          <t>MNG</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D54" s="2">
+        <v>44120</v>
       </c>
       <c r="E54">
-        <v>3.292049180327869</v>
+        <v>0.08854838709677419</v>
       </c>
       <c r="F54">
-        <v>0.190635994330201</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="G54">
+        <v>0.05205618712337947</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I54">
-        <v>0.02732258064516129</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.03155737704918032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>STP</t>
-        </is>
-      </c>
-      <c r="C55" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D55">
-        <v>3.385387096774194</v>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D55" s="2">
+        <v>44120</v>
       </c>
       <c r="E55">
-        <v>3.29127868852459</v>
+        <v>65.93709677419355</v>
       </c>
       <c r="F55">
-        <v>2.306458265279454</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>54.4662131147541</v>
+      </c>
+      <c r="G55">
+        <v>1.304461570022105</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1.012129032258065</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>0.9504918032786885</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SEN</t>
-        </is>
-      </c>
-      <c r="C56" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D56">
-        <v>2.00741935483871</v>
+          <t>MMR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D56" s="2">
+        <v>44120</v>
       </c>
       <c r="E56">
-        <v>3.246557377049181</v>
+        <v>17.2241935483871</v>
       </c>
       <c r="F56">
-        <v>0.247298791847078</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>9.634508196721312</v>
+      </c>
+      <c r="G56">
+        <v>0.4574030832463262</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I56">
-        <v>0.03670967741935484</v>
+        <v>0.4345806451612903</v>
       </c>
       <c r="J56">
-        <v>0.06363934426229508</v>
+        <v>0.228672131147541</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SLE</t>
-        </is>
-      </c>
-      <c r="C57" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D57">
-        <v>0.8654516129032258</v>
+          <t>NPL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D57" s="2">
+        <v>44120</v>
       </c>
       <c r="E57">
-        <v>0.7583442622950819</v>
+        <v>73.53064516129032</v>
       </c>
       <c r="F57">
-        <v>0.101737136301814</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>53.8588524590164</v>
+      </c>
+      <c r="G57">
+        <v>1.343573772443284</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I57">
-        <v>0.004032258064516129</v>
+        <v>0.3698064516129032</v>
       </c>
       <c r="J57">
-        <v>0.00819672131147541</v>
+        <v>0.3331475409836066</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SLB</t>
-        </is>
-      </c>
-      <c r="C58" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D58">
-        <v>2.912</v>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D58" s="2">
+        <v>44120</v>
       </c>
       <c r="E58">
-        <v>2.912</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>2.605161290322581</v>
+      </c>
+      <c r="F58">
+        <v>3.063622950819672</v>
+      </c>
+      <c r="G58">
+        <v>0.3994333840854735</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2687,79 +2690,79 @@
         </is>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.04870967741935484</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>0.06436065573770491</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SOM</t>
-        </is>
-      </c>
-      <c r="C59" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D59">
-        <v>0.9641290322580646</v>
+          <t>NGA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D59" s="2">
+        <v>44120</v>
       </c>
       <c r="E59">
-        <v>0.6271639344262295</v>
+        <v>0.6956774193548387</v>
       </c>
       <c r="F59">
-        <v>0.09135747490524741</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.9593770491803279</v>
+      </c>
+      <c r="G59">
+        <v>0.1220891655420356</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I59">
-        <v>0.002032258064516129</v>
+        <v>0.005290322580645161</v>
       </c>
       <c r="J59">
-        <v>0.00619672131147541</v>
+        <v>0.01139344262295082</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SSD</t>
-        </is>
-      </c>
-      <c r="C60" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D60">
-        <v>0.634</v>
+          <t>PAK</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D60" s="2">
+        <v>44120</v>
       </c>
       <c r="E60">
-        <v>0.4671475409836066</v>
+        <v>2.840774193548387</v>
       </c>
       <c r="F60">
-        <v>0.1785407038479069</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>2.460918032786885</v>
+      </c>
+      <c r="G60">
+        <v>0.9037699077885014</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2767,79 +2770,79 @@
         </is>
       </c>
       <c r="I60">
-        <v>0.01725806451612903</v>
+        <v>0.03390322580645162</v>
       </c>
       <c r="J60">
-        <v>0.01168852459016393</v>
+        <v>0.03367213114754098</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LKA</t>
-        </is>
-      </c>
-      <c r="C61" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D61">
-        <v>2.985806451612903</v>
+          <t>PSE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D61" s="2">
+        <v>44120</v>
       </c>
       <c r="E61">
-        <v>1.802147540983607</v>
+        <v>108.4012580645161</v>
       </c>
       <c r="F61">
-        <v>0.08127529438419202</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>115.3231639344262</v>
+      </c>
+      <c r="G61">
+        <v>2.07516037307076</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1.378322580645161</v>
       </c>
       <c r="J61">
-        <v>0.001540983606557377</v>
+        <v>1.13744262295082</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SDN</t>
-        </is>
-      </c>
-      <c r="C62" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D62">
-        <v>0.114741935483871</v>
+          <t>PNG</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D62" s="2">
+        <v>44120</v>
       </c>
       <c r="E62">
-        <v>0.5147868852459017</v>
+        <v>0.2416129032258065</v>
       </c>
       <c r="F62">
-        <v>0.1522415865424555</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.5625573770491803</v>
+      </c>
+      <c r="G62">
+        <v>0.05723161316159362</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2847,39 +2850,39 @@
         </is>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>0.003612903225806452</v>
       </c>
       <c r="J62">
-        <v>0.01419672131147541</v>
+        <v>0.007344262295081967</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SWZ</t>
-        </is>
-      </c>
-      <c r="C63" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D63">
-        <v>17.48916129032258</v>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D63" s="2">
+        <v>44120</v>
       </c>
       <c r="E63">
-        <v>28.09096721311476</v>
+        <v>24.37725806451613</v>
       </c>
       <c r="F63">
-        <v>2.382538722946213</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>28.54090163934426</v>
+      </c>
+      <c r="G63">
+        <v>0.8316127199996822</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2887,119 +2890,116 @@
         </is>
       </c>
       <c r="I63">
-        <v>0.3892903225806452</v>
+        <v>0.5496451612903226</v>
       </c>
       <c r="J63">
-        <v>0.6500327868852459</v>
+        <v>0.5830163934426229</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SYR</t>
-        </is>
-      </c>
-      <c r="C64" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D64">
-        <v>2.497612903225806</v>
+          <t>STP</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D64" s="2">
+        <v>44120</v>
       </c>
       <c r="E64">
-        <v>3.126819672131147</v>
+        <v>3.385387096774194</v>
       </c>
       <c r="F64">
-        <v>0.1065247101826628</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>3.29127868852459</v>
+      </c>
+      <c r="G64">
+        <v>2.306458265279454</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I64">
-        <v>0.1490645161290323</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0.1665737704918033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C65" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D65">
-        <v>4.349451612903226</v>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D65" s="2">
+        <v>44120</v>
       </c>
       <c r="E65">
-        <v>4.030655737704918</v>
+        <v>2.00741935483871</v>
       </c>
       <c r="F65">
-        <v>0.4173692830689937</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>3.246557377049181</v>
+      </c>
+      <c r="G65">
+        <v>0.247298791847078</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Decreasing</t>
         </is>
       </c>
       <c r="I65">
-        <v>0.02709677419354839</v>
+        <v>0.03670967741935484</v>
       </c>
       <c r="J65">
-        <v>0.02754098360655738</v>
+        <v>0.06363934426229508</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TZA</t>
-        </is>
-      </c>
-      <c r="C66" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D66" s="2">
+        <v>44120</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2.912</v>
       </c>
       <c r="F66">
-        <v>0.009506987478454621</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>2.912</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3016,70 +3016,70 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Timor</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TLS</t>
-        </is>
-      </c>
-      <c r="C67" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D67">
-        <v>0.04890322580645162</v>
+          <t>LKA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D67" s="2">
+        <v>44120</v>
       </c>
       <c r="E67">
-        <v>0.04970491803278689</v>
+        <v>2.985806451612903</v>
       </c>
       <c r="F67">
-        <v>0.02151005718077093</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>1.802147540983607</v>
+      </c>
+      <c r="G67">
+        <v>0.08127529438419202</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>0.001540983606557377</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Swaziland</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TGO</t>
-        </is>
-      </c>
-      <c r="C68" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D68">
-        <v>1.628677419354839</v>
+          <t>SWZ</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D68" s="2">
+        <v>44120</v>
       </c>
       <c r="E68">
-        <v>1.714803278688525</v>
+        <v>17.48916129032258</v>
       </c>
       <c r="F68">
-        <v>0.04103964364642074</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>28.09096721311476</v>
+      </c>
+      <c r="G68">
+        <v>2.382538722946213</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3087,119 +3087,119 @@
         </is>
       </c>
       <c r="I68">
-        <v>0.04290322580645161</v>
+        <v>0.3892903225806452</v>
       </c>
       <c r="J68">
-        <v>0.04757377049180328</v>
+        <v>0.6500327868852459</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TUN</t>
-        </is>
-      </c>
-      <c r="C69" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D69">
-        <v>74.8081935483871</v>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D69" s="2">
+        <v>44120</v>
       </c>
       <c r="E69">
-        <v>45.45065573770492</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.982492318657226</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.009506987478454621</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I69">
-        <v>1.078161290322581</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0.6352950819672131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Timor</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="C70" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D70">
-        <v>3.75041935483871</v>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D70" s="2">
+        <v>44120</v>
       </c>
       <c r="E70">
-        <v>3.111934426229508</v>
+        <v>0.04890322580645162</v>
       </c>
       <c r="F70">
-        <v>0.1161255401134119</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.04970491803278689</v>
+      </c>
+      <c r="G70">
+        <v>0.02151005718077093</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Increasing</t>
+          <t>Uncertain</t>
         </is>
       </c>
       <c r="I70">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0.02985245901639344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C71" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D71">
-        <v>91.78851612903226</v>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D71" s="2">
+        <v>44120</v>
       </c>
       <c r="E71">
-        <v>71.79054098360656</v>
+        <v>74.8081935483871</v>
       </c>
       <c r="F71">
-        <v>1.484468733961409</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>45.45065573770492</v>
+      </c>
+      <c r="G71">
+        <v>1.982492318657226</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3207,79 +3207,79 @@
         </is>
       </c>
       <c r="I71">
-        <v>1.54241935483871</v>
+        <v>1.078161290322581</v>
       </c>
       <c r="J71">
-        <v>1.221295081967213</v>
+        <v>0.6352950819672131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C72" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D72">
-        <v>13.77487096774194</v>
+          <t>UKR</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D72" s="2">
+        <v>44120</v>
       </c>
       <c r="E72">
-        <v>13.48934426229508</v>
+        <v>91.78851612903226</v>
       </c>
       <c r="F72">
-        <v>0.5161560496075248</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>71.79054098360656</v>
+      </c>
+      <c r="G72">
+        <v>1.484468733961409</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="I72">
-        <v>0.1148064516129032</v>
+        <v>1.54241935483871</v>
       </c>
       <c r="J72">
-        <v>0.1425245901639344</v>
+        <v>1.221295081967213</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VNM</t>
-        </is>
-      </c>
-      <c r="C73" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D73">
-        <v>0.02019354838709677</v>
+          <t>UZB</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D73" s="2">
+        <v>44120</v>
       </c>
       <c r="E73">
-        <v>0.03201639344262295</v>
+        <v>13.77487096774194</v>
       </c>
       <c r="F73">
-        <v>0.009150005253267531</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
+        <v>13.48934426229508</v>
+      </c>
+      <c r="G73">
+        <v>0.5161560496075248</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3287,39 +3287,39 @@
         </is>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.1148064516129032</v>
       </c>
       <c r="J73">
-        <v>0.002180327868852459</v>
+        <v>0.1425245901639344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="C74" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D74">
-        <v>0.0477741935483871</v>
+          <t>VNM</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D74" s="2">
+        <v>44120</v>
       </c>
       <c r="E74">
-        <v>0.1072950819672131</v>
+        <v>0.02019354838709677</v>
       </c>
       <c r="F74">
-        <v>0.04509230550133669</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Low income</t>
-        </is>
+        <v>0.03201639344262295</v>
+      </c>
+      <c r="G74">
+        <v>0.009150005253267531</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="I74">
-        <v>0.01532258064516129</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0.03757377049180328</v>
+        <v>0.002180327868852459</v>
       </c>
     </row>
     <row r="75">
@@ -3344,22 +3344,22 @@
           <t>ZMB</t>
         </is>
       </c>
-      <c r="C75" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D75" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E75">
         <v>3.402258064516129</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>5.772114754098361</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.4781582164480851</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3384,22 +3384,22 @@
           <t>ZWE</t>
         </is>
       </c>
-      <c r="C76" s="2">
-        <v>44120</v>
-      </c>
-      <c r="D76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Lower middle income</t>
+        </is>
+      </c>
+      <c r="D76" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E76">
         <v>1.180709677419355</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>3.197508196721312</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.3626490045491643</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Lower middle income</t>
-        </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3411,6 +3411,5366 @@
       </c>
       <c r="J76">
         <v>0.1113934426229508</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D77" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E77">
+        <v>52.59390322580645</v>
+      </c>
+      <c r="F77">
+        <v>50.99526229508197</v>
+      </c>
+      <c r="G77">
+        <v>0.633468981408833</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I77">
+        <v>1.131903225806452</v>
+      </c>
+      <c r="J77">
+        <v>1.218852459016393</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D78" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E78">
+        <v>280.8755806451613</v>
+      </c>
+      <c r="F78">
+        <v>241.7990983606557</v>
+      </c>
+      <c r="G78">
+        <v>3.660574497208442</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I78">
+        <v>9.942419354838711</v>
+      </c>
+      <c r="J78">
+        <v>7.173524590163934</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D79" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E79">
+        <v>152.6883870967742</v>
+      </c>
+      <c r="F79">
+        <v>102.3471639344262</v>
+      </c>
+      <c r="G79">
+        <v>8.030910289349045</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I79">
+        <v>1.38241935483871</v>
+      </c>
+      <c r="J79">
+        <v>1.266754098360656</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>AZE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D80" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E80">
+        <v>15.51632258064516</v>
+      </c>
+      <c r="F80">
+        <v>14.83131147540984</v>
+      </c>
+      <c r="G80">
+        <v>2.286903209845459</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I80">
+        <v>0.1750322580645161</v>
+      </c>
+      <c r="J80">
+        <v>0.1827377049180328</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BLR</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D81" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E81">
+        <v>38.82848387096774</v>
+      </c>
+      <c r="F81">
+        <v>28.2958524590164</v>
+      </c>
+      <c r="G81">
+        <v>2.912571864569367</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>0.5461290322580645</v>
+      </c>
+      <c r="J81">
+        <v>0.5359672131147542</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Belize</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BLZ</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D82" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E82">
+        <v>95.81180645161291</v>
+      </c>
+      <c r="F82">
+        <v>91.94027868852459</v>
+      </c>
+      <c r="G82">
+        <v>2.951268293326498</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I82">
+        <v>1.784838709677419</v>
+      </c>
+      <c r="J82">
+        <v>1.56672131147541</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BIH</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D83" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E83">
+        <v>84.49906451612903</v>
+      </c>
+      <c r="F83">
+        <v>83.39091803278689</v>
+      </c>
+      <c r="G83">
+        <v>2.0078773787395</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I83">
+        <v>2.694129032258064</v>
+      </c>
+      <c r="J83">
+        <v>2.513393442622951</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D84" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E84">
+        <v>38.12051612903226</v>
+      </c>
+      <c r="F84">
+        <v>28.07962295081967</v>
+      </c>
+      <c r="G84">
+        <v>0.5730216202294999</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>0.1234193548387097</v>
+      </c>
+      <c r="J84">
+        <v>0.1184754098360656</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BRA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D85" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E85">
+        <v>125.0164516129032</v>
+      </c>
+      <c r="F85">
+        <v>142.8561475409836</v>
+      </c>
+      <c r="G85">
+        <v>6.085863038962268</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I85">
+        <v>3.104129032258065</v>
+      </c>
+      <c r="J85">
+        <v>3.488180327868852</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D86" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E86">
+        <v>43.85287096774194</v>
+      </c>
+      <c r="F86">
+        <v>31.08131147540983</v>
+      </c>
+      <c r="G86">
+        <v>0.9568181277543417</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I86">
+        <v>0.9935161290322581</v>
+      </c>
+      <c r="J86">
+        <v>1.059360655737705</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CHN</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D87" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E87">
+        <v>0.01538709677419355</v>
+      </c>
+      <c r="F87">
+        <v>0.01854098360655738</v>
+      </c>
+      <c r="G87">
+        <v>0.003870600993983525</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I87">
+        <v>0.0001290322580645161</v>
+      </c>
+      <c r="J87">
+        <v>0.0004426229508196721</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D88" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E88">
+        <v>136.36</v>
+      </c>
+      <c r="F88">
+        <v>154.7407540983607</v>
+      </c>
+      <c r="G88">
+        <v>5.214137168038105</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I88">
+        <v>3.38158064516129</v>
+      </c>
+      <c r="J88">
+        <v>4.396754098360656</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D89" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E89">
+        <v>226.7069677419355</v>
+      </c>
+      <c r="F89">
+        <v>210.513</v>
+      </c>
+      <c r="G89">
+        <v>3.430784738149966</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I89">
+        <v>3.40683870967742</v>
+      </c>
+      <c r="J89">
+        <v>2.79327868852459</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D90" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E90">
+        <v>3.804838709677419</v>
+      </c>
+      <c r="F90">
+        <v>4.009081967213115</v>
+      </c>
+      <c r="G90">
+        <v>0.2044495770808495</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I90">
+        <v>0.04274193548387097</v>
+      </c>
+      <c r="J90">
+        <v>0.05068852459016393</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Dominica</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DMA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D91" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E91">
+        <v>4.032774193548387</v>
+      </c>
+      <c r="F91">
+        <v>3.415754098360656</v>
+      </c>
+      <c r="G91">
+        <v>0.1681231101889335</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D92" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E92">
+        <v>47.44774193548387</v>
+      </c>
+      <c r="F92">
+        <v>52.16832786885246</v>
+      </c>
+      <c r="G92">
+        <v>3.86051906552515</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I92">
+        <v>0.6096774193548388</v>
+      </c>
+      <c r="J92">
+        <v>1.134934426229508</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D93" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E93">
+        <v>57.50041935483871</v>
+      </c>
+      <c r="F93">
+        <v>46.15381967213115</v>
+      </c>
+      <c r="G93">
+        <v>1.464311107498478</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I93">
+        <v>2.530451612903226</v>
+      </c>
+      <c r="J93">
+        <v>5.798967213114755</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GNQ</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D94" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E94">
+        <v>1.563516129032258</v>
+      </c>
+      <c r="F94">
+        <v>2.886131147540984</v>
+      </c>
+      <c r="G94">
+        <v>2.323011967486643</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FJI</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D95" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0.09145901639344263</v>
+      </c>
+      <c r="G95">
+        <v>0.01840266630522526</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.01829508196721312</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>GAB</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D96" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E96">
+        <v>3.116</v>
+      </c>
+      <c r="F96">
+        <v>4.74327868852459</v>
+      </c>
+      <c r="G96">
+        <v>1.862949715575452</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I96">
+        <v>0.01448387096774194</v>
+      </c>
+      <c r="J96">
+        <v>0.02209836065573771</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>GEO</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D97" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E97">
+        <v>97.42490322580645</v>
+      </c>
+      <c r="F97">
+        <v>53.91229508196722</v>
+      </c>
+      <c r="G97">
+        <v>2.465615268615554</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I97">
+        <v>0.7600967741935484</v>
+      </c>
+      <c r="J97">
+        <v>0.3945081967213114</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Grenada</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>GRD</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D98" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E98">
+        <v>0.2866774193548387</v>
+      </c>
+      <c r="F98">
+        <v>0.1456885245901639</v>
+      </c>
+      <c r="G98">
+        <v>0.09108309226551409</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GTM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D99" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E99">
+        <v>31.67729032258065</v>
+      </c>
+      <c r="F99">
+        <v>34.27001639344262</v>
+      </c>
+      <c r="G99">
+        <v>1.922426024149568</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I99">
+        <v>0.8660645161290322</v>
+      </c>
+      <c r="J99">
+        <v>1.00472131147541</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D100" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E100">
+        <v>71.19616129032258</v>
+      </c>
+      <c r="F100">
+        <v>61.4004262295082</v>
+      </c>
+      <c r="G100">
+        <v>1.819352950315744</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I100">
+        <v>2.091677419354839</v>
+      </c>
+      <c r="J100">
+        <v>1.771606557377049</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D101" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E101">
+        <v>15.05296774193548</v>
+      </c>
+      <c r="F101">
+        <v>12.68759016393443</v>
+      </c>
+      <c r="G101">
+        <v>0.1669228437531433</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I101">
+        <v>0.4041290322580645</v>
+      </c>
+      <c r="J101">
+        <v>0.3714426229508197</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>IRN</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D102" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E102">
+        <v>43.47022580645162</v>
+      </c>
+      <c r="F102">
+        <v>34.50031147540984</v>
+      </c>
+      <c r="G102">
+        <v>0.584880260581867</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I102">
+        <v>2.41641935483871</v>
+      </c>
+      <c r="J102">
+        <v>1.973754098360656</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>IRQ</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D103" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E103">
+        <v>98.10277419354839</v>
+      </c>
+      <c r="F103">
+        <v>99.53609836065574</v>
+      </c>
+      <c r="G103">
+        <v>0.9981965268006314</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I103">
+        <v>1.603967741935484</v>
+      </c>
+      <c r="J103">
+        <v>1.752983606557377</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D104" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E104">
+        <v>45.03464516129032</v>
+      </c>
+      <c r="F104">
+        <v>38.67001639344262</v>
+      </c>
+      <c r="G104">
+        <v>1.509186811829226</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I104">
+        <v>1.263774193548387</v>
+      </c>
+      <c r="J104">
+        <v>0.8083114754098361</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>JOR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D105" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E105">
+        <v>93.2066129032258</v>
+      </c>
+      <c r="F105">
+        <v>50.88437704918033</v>
+      </c>
+      <c r="G105">
+        <v>2.212754267661474</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I105">
+        <v>0.8092903225806452</v>
+      </c>
+      <c r="J105">
+        <v>0.4353770491803279</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>KAZ</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D106" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E106">
+        <v>14.04445161290323</v>
+      </c>
+      <c r="F106">
+        <v>20.60452459016393</v>
+      </c>
+      <c r="G106">
+        <v>5.33415765479452</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I106">
+        <v>0.3075483870967742</v>
+      </c>
+      <c r="J106">
+        <v>0.5754098360655737</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>XKX</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D107" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E107">
+        <v>30.209</v>
+      </c>
+      <c r="F107">
+        <v>44.33450819672131</v>
+      </c>
+      <c r="G107">
+        <v>4.280654562319202</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I107">
+        <v>0.8344516129032258</v>
+      </c>
+      <c r="J107">
+        <v>2.20527868852459</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>LBN</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D108" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E108">
+        <v>160.1598064516129</v>
+      </c>
+      <c r="F108">
+        <v>120.8184262295082</v>
+      </c>
+      <c r="G108">
+        <v>3.28475421049252</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I108">
+        <v>1.205290322580645</v>
+      </c>
+      <c r="J108">
+        <v>0.9704754098360656</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D109" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E109">
+        <v>108.7320322580645</v>
+      </c>
+      <c r="F109">
+        <v>92.89786885245901</v>
+      </c>
+      <c r="G109">
+        <v>2.484952017569266</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I109">
+        <v>1.469354838709677</v>
+      </c>
+      <c r="J109">
+        <v>1.278770491803279</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Macedonia</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MKD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D110" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E110">
+        <v>98.76935483870967</v>
+      </c>
+      <c r="F110">
+        <v>74.88618032786886</v>
+      </c>
+      <c r="G110">
+        <v>2.248578342053923</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I110">
+        <v>2.585806451612903</v>
+      </c>
+      <c r="J110">
+        <v>2.171803278688524</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D111" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E111">
+        <v>8.155741935483871</v>
+      </c>
+      <c r="F111">
+        <v>4.535196721311475</v>
+      </c>
+      <c r="G111">
+        <v>0.2191513926652804</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I111">
+        <v>0.04193548387096775</v>
+      </c>
+      <c r="J111">
+        <v>0.02283606557377049</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MDV</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D112" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E112">
+        <v>111.5967741935484</v>
+      </c>
+      <c r="F112">
+        <v>164.8013278688525</v>
+      </c>
+      <c r="G112">
+        <v>7.127025962063565</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I112">
+        <v>0.1193548387096774</v>
+      </c>
+      <c r="J112">
+        <v>0.3942622950819673</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D113" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E113">
+        <v>32.11774193548387</v>
+      </c>
+      <c r="F113">
+        <v>35.84586885245901</v>
+      </c>
+      <c r="G113">
+        <v>1.502177919625891</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I113">
+        <v>3.561741935483871</v>
+      </c>
+      <c r="J113">
+        <v>3.654459016393443</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MNE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D114" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E114">
+        <v>399.1798064516129</v>
+      </c>
+      <c r="F114">
+        <v>279.6006721311475</v>
+      </c>
+      <c r="G114">
+        <v>8.489083670614406</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I114">
+        <v>5.136129032258065</v>
+      </c>
+      <c r="J114">
+        <v>3.810786885245902</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D115" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E115">
+        <v>29.00909677419355</v>
+      </c>
+      <c r="F115">
+        <v>52.87880327868852</v>
+      </c>
+      <c r="G115">
+        <v>2.206932227120023</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I115">
+        <v>0.3429032258064516</v>
+      </c>
+      <c r="J115">
+        <v>0.6130163934426229</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>PRY</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D116" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E116">
+        <v>109.5797741935484</v>
+      </c>
+      <c r="F116">
+        <v>99.32567213114754</v>
+      </c>
+      <c r="G116">
+        <v>2.758729315910078</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I116">
+        <v>2.763354838709677</v>
+      </c>
+      <c r="J116">
+        <v>2.351262295081967</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D117" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E117">
+        <v>123.1549032258065</v>
+      </c>
+      <c r="F117">
+        <v>166.031868852459</v>
+      </c>
+      <c r="G117">
+        <v>5.162716432227515</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I117">
+        <v>2.705064516129032</v>
+      </c>
+      <c r="J117">
+        <v>3.729901639344262</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D118" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E118">
+        <v>63.18422580645161</v>
+      </c>
+      <c r="F118">
+        <v>49.00919672131148</v>
+      </c>
+      <c r="G118">
+        <v>1.518750633309222</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I118">
+        <v>1.07341935483871</v>
+      </c>
+      <c r="J118">
+        <v>0.8845409836065574</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Saint Lucia</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>LCA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D119" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E119">
+        <v>0.7027096774193548</v>
+      </c>
+      <c r="F119">
+        <v>0.535672131147541</v>
+      </c>
+      <c r="G119">
+        <v>0.03620778494940768</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Saint Vincent and the Grenadines</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>VCT</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D120" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1.034311475409836</v>
+      </c>
+      <c r="G120">
+        <v>0.3255952066908788</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D121" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E121">
+        <v>14.30254838709677</v>
+      </c>
+      <c r="F121">
+        <v>14.41416393442623</v>
+      </c>
+      <c r="G121">
+        <v>2.23750912269026</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I121">
+        <v>0.1754516129032258</v>
+      </c>
+      <c r="J121">
+        <v>0.2409836065573771</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D122" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E122">
+        <v>25.79993548387097</v>
+      </c>
+      <c r="F122">
+        <v>31.65734426229508</v>
+      </c>
+      <c r="G122">
+        <v>8.78769980921879</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I122">
+        <v>1.528387096774194</v>
+      </c>
+      <c r="J122">
+        <v>1.833147540983607</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D123" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E123">
+        <v>26.55941935483871</v>
+      </c>
+      <c r="F123">
+        <v>59.60652459016394</v>
+      </c>
+      <c r="G123">
+        <v>4.901645094016529</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I123">
+        <v>0.7699354838709678</v>
+      </c>
+      <c r="J123">
+        <v>1.872426229508197</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D124" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E124">
+        <v>0.08735483870967742</v>
+      </c>
+      <c r="F124">
+        <v>0.06855737704918033</v>
+      </c>
+      <c r="G124">
+        <v>0.01331402258916991</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I124">
+        <v>0.0004516129032258065</v>
+      </c>
+      <c r="J124">
+        <v>0.0002295081967213115</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D125" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E125">
+        <v>18.84306451612903</v>
+      </c>
+      <c r="F125">
+        <v>18.27644262295082</v>
+      </c>
+      <c r="G125">
+        <v>1.025632072956748</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I125">
+        <v>0.7500967741935484</v>
+      </c>
+      <c r="J125">
+        <v>0.6074426229508196</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>VEN</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Upper middle income</t>
+        </is>
+      </c>
+      <c r="D126" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E126">
+        <v>27.11235483870968</v>
+      </c>
+      <c r="F126">
+        <v>30.47514754098361</v>
+      </c>
+      <c r="G126">
+        <v>0.6477451650347627</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I126">
+        <v>0.2564193548387097</v>
+      </c>
+      <c r="J126">
+        <v>0.2559836065573771</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D127" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E127">
+        <v>731.4583225806451</v>
+      </c>
+      <c r="F127">
+        <v>466.9898032786885</v>
+      </c>
+      <c r="G127">
+        <v>18.67651633965658</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I127">
+        <v>2.504967741935484</v>
+      </c>
+      <c r="J127">
+        <v>1.273016393442623</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Antigua and Barbuda</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ATG</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D128" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E128">
+        <v>5.6</v>
+      </c>
+      <c r="F128">
+        <v>3.18072131147541</v>
+      </c>
+      <c r="G128">
+        <v>0.8196861509219395</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ABW</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D129" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E129">
+        <v>370.119064516129</v>
+      </c>
+      <c r="F129">
+        <v>497.026868852459</v>
+      </c>
+      <c r="G129">
+        <v>22.50951663739627</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I129">
+        <v>3.625612903225806</v>
+      </c>
+      <c r="J129">
+        <v>4.299229508196722</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D130" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E130">
+        <v>0.8475483870967742</v>
+      </c>
+      <c r="F130">
+        <v>2.781704918032787</v>
+      </c>
+      <c r="G130">
+        <v>0.7423033364325166</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I130">
+        <v>0.1112903225806452</v>
+      </c>
+      <c r="J130">
+        <v>0.3375081967213115</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>AUT</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D131" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E131">
+        <v>96.27564516129033</v>
+      </c>
+      <c r="F131">
+        <v>68.35395081967214</v>
+      </c>
+      <c r="G131">
+        <v>2.257119049036686</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I131">
+        <v>0.4905806451612904</v>
+      </c>
+      <c r="J131">
+        <v>0.3020819672131148</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Bahamas</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>BHS</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D132" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E132">
+        <v>194.9848709677419</v>
+      </c>
+      <c r="F132">
+        <v>172.2935573770492</v>
+      </c>
+      <c r="G132">
+        <v>4.346981273481656</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I132">
+        <v>3.60941935483871</v>
+      </c>
+      <c r="J132">
+        <v>3.960393442622951</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>BHR</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D133" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E133">
+        <v>315.5885161290323</v>
+      </c>
+      <c r="F133">
+        <v>294.075262295082</v>
+      </c>
+      <c r="G133">
+        <v>8.562080181317679</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I133">
+        <v>1.440774193548387</v>
+      </c>
+      <c r="J133">
+        <v>1.146459016393443</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Barbados</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>BRB</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D134" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E134">
+        <v>3.928806451612903</v>
+      </c>
+      <c r="F134">
+        <v>3.879163934426229</v>
+      </c>
+      <c r="G134">
+        <v>0.2430008920716184</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D135" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E135">
+        <v>342.7957419354839</v>
+      </c>
+      <c r="F135">
+        <v>200.0122786885246</v>
+      </c>
+      <c r="G135">
+        <v>7.605750359262955</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I135">
+        <v>1.194064516129032</v>
+      </c>
+      <c r="J135">
+        <v>0.772311475409836</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>BMU</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D136" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E136">
+        <v>4.144064516129032</v>
+      </c>
+      <c r="F136">
+        <v>6.054754098360656</v>
+      </c>
+      <c r="G136">
+        <v>1.175136248165713</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>British Virgin Islands</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>VGB</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D137" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E137">
+        <v>5.334193548387097</v>
+      </c>
+      <c r="F137">
+        <v>33.61422950819672</v>
+      </c>
+      <c r="G137">
+        <v>2.493994225242998</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Brunei</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>BRN</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D138" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E138">
+        <v>0.1474838709677419</v>
+      </c>
+      <c r="F138">
+        <v>0.1873770491803279</v>
+      </c>
+      <c r="G138">
+        <v>0.02121054374504819</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D139" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E139">
+        <v>45.91603225806452</v>
+      </c>
+      <c r="F139">
+        <v>30.33660655737705</v>
+      </c>
+      <c r="G139">
+        <v>1.708468937368059</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I139">
+        <v>0.4442903225806452</v>
+      </c>
+      <c r="J139">
+        <v>0.2930327868852459</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Cayman Islands</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>CYM</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D140" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E140">
+        <v>8.344258064516129</v>
+      </c>
+      <c r="F140">
+        <v>5.487737704918033</v>
+      </c>
+      <c r="G140">
+        <v>1.638044724786895</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D141" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E141">
+        <v>84.47987096774193</v>
+      </c>
+      <c r="F141">
+        <v>87.9812786885246</v>
+      </c>
+      <c r="G141">
+        <v>12.62482199206689</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I141">
+        <v>2.397870967741936</v>
+      </c>
+      <c r="J141">
+        <v>2.606163934426229</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D142" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E142">
+        <v>70.21651612903226</v>
+      </c>
+      <c r="F142">
+        <v>64.34744262295082</v>
+      </c>
+      <c r="G142">
+        <v>1.409436503250394</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I142">
+        <v>0.9193548387096774</v>
+      </c>
+      <c r="J142">
+        <v>0.7148524590163934</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Curacao</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>CUW</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D143" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E143">
+        <v>101.4330322580645</v>
+      </c>
+      <c r="F143">
+        <v>63.93539344262295</v>
+      </c>
+      <c r="G143">
+        <v>2.737446299464385</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>CYP</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D144" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E144">
+        <v>23.82809677419355</v>
+      </c>
+      <c r="F144">
+        <v>15.89003278688525</v>
+      </c>
+      <c r="G144">
+        <v>0.8019046489113721</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I144">
+        <v>0.1105161290322581</v>
+      </c>
+      <c r="J144">
+        <v>0.09360655737704918</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D145" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E145">
+        <v>336.7326451612904</v>
+      </c>
+      <c r="F145">
+        <v>197.6569508196721</v>
+      </c>
+      <c r="G145">
+        <v>7.31411705100235</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I145">
+        <v>2.30441935483871</v>
+      </c>
+      <c r="J145">
+        <v>1.278245901639344</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>DNK</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D146" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E146">
+        <v>79.21096774193548</v>
+      </c>
+      <c r="F146">
+        <v>52.47301639344262</v>
+      </c>
+      <c r="G146">
+        <v>2.626779233048209</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I146">
+        <v>0.2450645161290322</v>
+      </c>
+      <c r="J146">
+        <v>0.1585409836065574</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>EST</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D147" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E147">
+        <v>31.17487096774194</v>
+      </c>
+      <c r="F147">
+        <v>22.19506557377049</v>
+      </c>
+      <c r="G147">
+        <v>1.157454995477895</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I147">
+        <v>0.09729032258064516</v>
+      </c>
+      <c r="J147">
+        <v>0.06180327868852459</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Faeroe Islands</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>FRO</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D148" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E148">
+        <v>37.62854838709677</v>
+      </c>
+      <c r="F148">
+        <v>36.90344262295082</v>
+      </c>
+      <c r="G148">
+        <v>5.505343367279656</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>FIN</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D149" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E149">
+        <v>25.42470967741935</v>
+      </c>
+      <c r="F149">
+        <v>15.60431147540984</v>
+      </c>
+      <c r="G149">
+        <v>0.9994849452585261</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I149">
+        <v>0.064</v>
+      </c>
+      <c r="J149">
+        <v>0.05024590163934426</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D150" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E150">
+        <v>208.7652258064516</v>
+      </c>
+      <c r="F150">
+        <v>149.224</v>
+      </c>
+      <c r="G150">
+        <v>5.411541577904158</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I150">
+        <v>1.074903225806452</v>
+      </c>
+      <c r="J150">
+        <v>0.6820983606557377</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>French Polynesia</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>PYF</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D151" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E151">
+        <v>291.2256451612903</v>
+      </c>
+      <c r="F151">
+        <v>198.8311639344262</v>
+      </c>
+      <c r="G151">
+        <v>6.566362906396215</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I151">
+        <v>1.263225806451613</v>
+      </c>
+      <c r="J151">
+        <v>0.7586885245901639</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D152" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E152">
+        <v>33.41732258064516</v>
+      </c>
+      <c r="F152">
+        <v>24.32562295081967</v>
+      </c>
+      <c r="G152">
+        <v>1.171623053592981</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I152">
+        <v>0.1432258064516129</v>
+      </c>
+      <c r="J152">
+        <v>0.09845901639344262</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Gibraltar</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>GIB</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D153" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E153">
+        <v>192.4512580645161</v>
+      </c>
+      <c r="F153">
+        <v>156.679606557377</v>
+      </c>
+      <c r="G153">
+        <v>4.973234724330349</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>GRC</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D154" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E154">
+        <v>32.57974193548387</v>
+      </c>
+      <c r="F154">
+        <v>26.8776393442623</v>
+      </c>
+      <c r="G154">
+        <v>0.7284572460088135</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I154">
+        <v>0.5325161290322581</v>
+      </c>
+      <c r="J154">
+        <v>0.4028196721311476</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Greenland</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>GRL</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D155" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E155">
+        <v>1.136387096774194</v>
+      </c>
+      <c r="F155">
+        <v>0.5775081967213115</v>
+      </c>
+      <c r="G155">
+        <v>0.06832832866000997</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guam</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>GUM</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D156" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E156">
+        <v>286.6823225806452</v>
+      </c>
+      <c r="F156">
+        <v>282.7377049180328</v>
+      </c>
+      <c r="G156">
+        <v>8.396898989237398</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I156">
+        <v>6.880451612903226</v>
+      </c>
+      <c r="J156">
+        <v>5.633475409836065</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D157" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E157">
+        <v>99.74922580645162</v>
+      </c>
+      <c r="F157">
+        <v>64.73647540983606</v>
+      </c>
+      <c r="G157">
+        <v>3.117602848009597</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I157">
+        <v>1.479258064516129</v>
+      </c>
+      <c r="J157">
+        <v>0.8112459016393443</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ISL</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D158" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E158">
+        <v>157.7691935483871</v>
+      </c>
+      <c r="F158">
+        <v>88.29644262295082</v>
+      </c>
+      <c r="G158">
+        <v>4.013703342638926</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>IRL</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D159" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E159">
+        <v>99.54164516129032</v>
+      </c>
+      <c r="F159">
+        <v>63.87001639344263</v>
+      </c>
+      <c r="G159">
+        <v>4.9220297984338</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I159">
+        <v>0.353</v>
+      </c>
+      <c r="J159">
+        <v>0.2126393442622951</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Isle of Man</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>IMN</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D160" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E160">
+        <v>3.414258064516129</v>
+      </c>
+      <c r="F160">
+        <v>2.313491803278688</v>
+      </c>
+      <c r="G160">
+        <v>2.681812377930536</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D161" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E161">
+        <v>521.1393225806452</v>
+      </c>
+      <c r="F161">
+        <v>393.6794754098361</v>
+      </c>
+      <c r="G161">
+        <v>11.3894131101503</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I161">
+        <v>3.693193548387097</v>
+      </c>
+      <c r="J161">
+        <v>2.751885245901639</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D162" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E162">
+        <v>49.5331935483871</v>
+      </c>
+      <c r="F162">
+        <v>34.74995081967213</v>
+      </c>
+      <c r="G162">
+        <v>2.083871756747512</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I162">
+        <v>0.3990967741935484</v>
+      </c>
+      <c r="J162">
+        <v>0.2657213114754098</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D163" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E163">
+        <v>3.946451612903226</v>
+      </c>
+      <c r="F163">
+        <v>4.759114754098361</v>
+      </c>
+      <c r="G163">
+        <v>0.3301564777145564</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I163">
+        <v>0.05083870967741935</v>
+      </c>
+      <c r="J163">
+        <v>0.07291803278688525</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>KWT</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D164" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E164">
+        <v>140.0660645161291</v>
+      </c>
+      <c r="F164">
+        <v>147.0915409836066</v>
+      </c>
+      <c r="G164">
+        <v>4.864293444437251</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I164">
+        <v>0.9138709677419356</v>
+      </c>
+      <c r="J164">
+        <v>0.7138196721311475</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>LVA</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D165" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E165">
+        <v>27.00429032258064</v>
+      </c>
+      <c r="F165">
+        <v>15.13140983606557</v>
+      </c>
+      <c r="G165">
+        <v>0.6701168114752528</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I165">
+        <v>0.1025806451612903</v>
+      </c>
+      <c r="J165">
+        <v>0.07819672131147541</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Liechtenstein</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>LIE</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D166" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E166">
+        <v>55.826</v>
+      </c>
+      <c r="F166">
+        <v>36.108</v>
+      </c>
+      <c r="G166">
+        <v>0.9019992481109018</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D167" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E167">
+        <v>39.98058064516129</v>
+      </c>
+      <c r="F167">
+        <v>26.33995081967213</v>
+      </c>
+      <c r="G167">
+        <v>0.934115754717904</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I167">
+        <v>0.2725161290322581</v>
+      </c>
+      <c r="J167">
+        <v>0.1745901639344262</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>LUX</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D168" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E168">
+        <v>154.5972258064516</v>
+      </c>
+      <c r="F168">
+        <v>73.459</v>
+      </c>
+      <c r="G168">
+        <v>6.938509308795093</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I168">
+        <v>0.4638709677419355</v>
+      </c>
+      <c r="J168">
+        <v>0.2619344262295082</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MLT</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D169" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E169">
+        <v>127.5597096774194</v>
+      </c>
+      <c r="F169">
+        <v>108.0424098360656</v>
+      </c>
+      <c r="G169">
+        <v>3.328368761323911</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I169">
+        <v>2.118774193548387</v>
+      </c>
+      <c r="J169">
+        <v>1.336672131147541</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MUS</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D170" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E170">
+        <v>1.166741935483871</v>
+      </c>
+      <c r="F170">
+        <v>0.8120819672131148</v>
+      </c>
+      <c r="G170">
+        <v>0.1274908462339634</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D171" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E171">
+        <v>62.47106451612903</v>
+      </c>
+      <c r="F171">
+        <v>64.3306393442623</v>
+      </c>
+      <c r="G171">
+        <v>2.080304367385461</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D172" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E172">
+        <v>226.6477419354839</v>
+      </c>
+      <c r="F172">
+        <v>135.1619672131148</v>
+      </c>
+      <c r="G172">
+        <v>5.521090357218998</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I172">
+        <v>0.8209677419354838</v>
+      </c>
+      <c r="J172">
+        <v>0.5004426229508197</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>New Caledonia</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>NCL</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D173" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E173">
+        <v>0.113</v>
+      </c>
+      <c r="F173">
+        <v>0.2296885245901639</v>
+      </c>
+      <c r="G173">
+        <v>0.01928323923641705</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>NZL</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D174" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E174">
+        <v>0.4949354838709678</v>
+      </c>
+      <c r="F174">
+        <v>0.8600163934426229</v>
+      </c>
+      <c r="G174">
+        <v>0.08794779484819423</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I174">
+        <v>0.006677419354838709</v>
+      </c>
+      <c r="J174">
+        <v>0.01019672131147541</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Northern Mariana Islands</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MNP</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D175" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E175">
+        <v>10.64858064516129</v>
+      </c>
+      <c r="F175">
+        <v>8.544590163934426</v>
+      </c>
+      <c r="G175">
+        <v>0.2524769267811704</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D176" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E176">
+        <v>22.59929032258065</v>
+      </c>
+      <c r="F176">
+        <v>18.455</v>
+      </c>
+      <c r="G176">
+        <v>0.8700666750730501</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I176">
+        <v>0.07725806451612903</v>
+      </c>
+      <c r="J176">
+        <v>0.05134426229508197</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>OMN</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D177" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E177">
+        <v>114.1718064516129</v>
+      </c>
+      <c r="F177">
+        <v>81.45001639344262</v>
+      </c>
+      <c r="G177">
+        <v>11.95536377009734</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I177">
+        <v>1.775096774193548</v>
+      </c>
+      <c r="J177">
+        <v>1.634</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D178" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E178">
+        <v>154.6003548387097</v>
+      </c>
+      <c r="F178">
+        <v>160.4022295081967</v>
+      </c>
+      <c r="G178">
+        <v>7.948805564302266</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I178">
+        <v>2.661483870967742</v>
+      </c>
+      <c r="J178">
+        <v>2.974852459016394</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D179" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E179">
+        <v>64.244</v>
+      </c>
+      <c r="F179">
+        <v>40.63555737704918</v>
+      </c>
+      <c r="G179">
+        <v>1.002950279519746</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I179">
+        <v>0.9418709677419355</v>
+      </c>
+      <c r="J179">
+        <v>0.6232786885245901</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D180" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E180">
+        <v>90.78838709677419</v>
+      </c>
+      <c r="F180">
+        <v>63.20432786885246</v>
+      </c>
+      <c r="G180">
+        <v>2.127021389770186</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I180">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="J180">
+        <v>0.5673934426229508</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Puerto Rico</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D181" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E181">
+        <v>206.7405483870968</v>
+      </c>
+      <c r="F181">
+        <v>174.1435245901639</v>
+      </c>
+      <c r="G181">
+        <v>3.568775166076863</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I181">
+        <v>2.26641935483871</v>
+      </c>
+      <c r="J181">
+        <v>2.372360655737705</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>QAT</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D182" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E182">
+        <v>76.45035483870967</v>
+      </c>
+      <c r="F182">
+        <v>79.62686885245901</v>
+      </c>
+      <c r="G182">
+        <v>18.98589315450994</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I182">
+        <v>0.1679032258064516</v>
+      </c>
+      <c r="J182">
+        <v>0.170655737704918</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D183" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E183">
+        <v>107.8242903225807</v>
+      </c>
+      <c r="F183">
+        <v>84.46195081967213</v>
+      </c>
+      <c r="G183">
+        <v>1.532516862840971</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I183">
+        <v>2.496677419354839</v>
+      </c>
+      <c r="J183">
+        <v>2.317704918032787</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Saint Kitts and Nevis</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D184" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E184">
+        <v>1.212903225806452</v>
+      </c>
+      <c r="F184">
+        <v>0.6163934426229508</v>
+      </c>
+      <c r="G184">
+        <v>0.1409586585211733</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D185" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E185">
+        <v>35.16841935483871</v>
+      </c>
+      <c r="F185">
+        <v>23.66895081967213</v>
+      </c>
+      <c r="G185">
+        <v>9.960167643665924</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D186" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E186">
+        <v>13.71716129032258</v>
+      </c>
+      <c r="F186">
+        <v>20.59995081967213</v>
+      </c>
+      <c r="G186">
+        <v>4.135501139037884</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I186">
+        <v>0.7617096774193548</v>
+      </c>
+      <c r="J186">
+        <v>0.8278524590163935</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Seychelles</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SYC</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D187" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E187">
+        <v>2.952258064516129</v>
+      </c>
+      <c r="F187">
+        <v>3.667459016393443</v>
+      </c>
+      <c r="G187">
+        <v>1.760878465175374</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D188" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E188">
+        <v>2.415129032258065</v>
+      </c>
+      <c r="F188">
+        <v>6.251606557377049</v>
+      </c>
+      <c r="G188">
+        <v>2.032359357698125</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I188">
+        <v>0.005516129032258065</v>
+      </c>
+      <c r="J188">
+        <v>0.00280327868852459</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sint Maarten (Dutch part)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SXM</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D189" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E189">
+        <v>141.4232580645161</v>
+      </c>
+      <c r="F189">
+        <v>167.0615573770492</v>
+      </c>
+      <c r="G189">
+        <v>9.241001371398328</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I189">
+        <v>2.256774193548387</v>
+      </c>
+      <c r="J189">
+        <v>1.911475409836066</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SVK</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D190" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E190">
+        <v>110.1631612903226</v>
+      </c>
+      <c r="F190">
+        <v>64.16686885245902</v>
+      </c>
+      <c r="G190">
+        <v>2.371721142091994</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I190">
+        <v>0.1949354838709677</v>
+      </c>
+      <c r="J190">
+        <v>0.1200819672131148</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SVN</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D191" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E191">
+        <v>107.5149032258065</v>
+      </c>
+      <c r="F191">
+        <v>65.31577049180328</v>
+      </c>
+      <c r="G191">
+        <v>2.16863643924057</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I191">
+        <v>0.3413548387096774</v>
+      </c>
+      <c r="J191">
+        <v>0.228672131147541</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>KOR</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D192" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E192">
+        <v>1.66358064516129</v>
+      </c>
+      <c r="F192">
+        <v>3.107032786885246</v>
+      </c>
+      <c r="G192">
+        <v>0.1322274039001944</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I192">
+        <v>0.04680645161290323</v>
+      </c>
+      <c r="J192">
+        <v>0.04372131147540984</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D193" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E193">
+        <v>230.0215806451613</v>
+      </c>
+      <c r="F193">
+        <v>208.1830819672131</v>
+      </c>
+      <c r="G193">
+        <v>6.887472315173619</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I193">
+        <v>2.601806451612903</v>
+      </c>
+      <c r="J193">
+        <v>1.808540983606557</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D194" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E194">
+        <v>51.49845161290322</v>
+      </c>
+      <c r="F194">
+        <v>36.06493442622951</v>
+      </c>
+      <c r="G194">
+        <v>2.75322034849929</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I194">
+        <v>0.2107741935483871</v>
+      </c>
+      <c r="J194">
+        <v>0.1996229508196721</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D195" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E195">
+        <v>88.76490322580645</v>
+      </c>
+      <c r="F195">
+        <v>63.0934262295082</v>
+      </c>
+      <c r="G195">
+        <v>2.142879233381525</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I195">
+        <v>0.2647741935483871</v>
+      </c>
+      <c r="J195">
+        <v>0.1952459016393443</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>TWN</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D196" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E196">
+        <v>0.0487741935483871</v>
+      </c>
+      <c r="F196">
+        <v>0.03511475409836066</v>
+      </c>
+      <c r="G196">
+        <v>0.004124323590687158</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TTO</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D197" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E197">
+        <v>47.32129032258064</v>
+      </c>
+      <c r="F197">
+        <v>55.28940983606557</v>
+      </c>
+      <c r="G197">
+        <v>2.226207771783917</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I197">
+        <v>0.8760322580645161</v>
+      </c>
+      <c r="J197">
+        <v>0.9723934426229508</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Turks and Caicos Islands</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>TCA</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D198" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E198">
+        <v>39.99141935483871</v>
+      </c>
+      <c r="F198">
+        <v>168.5156885245902</v>
+      </c>
+      <c r="G198">
+        <v>13.10629635794282</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I198">
+        <v>0.8331612903225806</v>
+      </c>
+      <c r="J198">
+        <v>1.693639344262295</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ARE</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D199" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E199">
+        <v>101.6659032258065</v>
+      </c>
+      <c r="F199">
+        <v>78.45826229508197</v>
+      </c>
+      <c r="G199">
+        <v>2.862494519598574</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I199">
+        <v>0.1727096774193548</v>
+      </c>
+      <c r="J199">
+        <v>0.1507049180327869</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D200" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E200">
+        <v>143.7405161290323</v>
+      </c>
+      <c r="F200">
+        <v>86.01167213114754</v>
+      </c>
+      <c r="G200">
+        <v>4.356239656855159</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I200">
+        <v>0.7869032258064516</v>
+      </c>
+      <c r="J200">
+        <v>0.4665409836065574</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D201" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E201">
+        <v>138.8805806451613</v>
+      </c>
+      <c r="F201">
+        <v>129.6963278688525</v>
+      </c>
+      <c r="G201">
+        <v>4.906148284917829</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I201">
+        <v>2.257967741935484</v>
+      </c>
+      <c r="J201">
+        <v>2.388049180327869</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>United States Virgin Islands</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>VIR</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D202" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E202">
+        <v>33.36303225806451</v>
+      </c>
+      <c r="F202">
+        <v>93.40945901639344</v>
+      </c>
+      <c r="G202">
+        <v>8.520158354201371</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Decreasing</t>
+        </is>
+      </c>
+      <c r="I202">
+        <v>0.6178064516129033</v>
+      </c>
+      <c r="J202">
+        <v>1.883819672131148</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>URY</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>High income</t>
+        </is>
+      </c>
+      <c r="D203" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E203">
+        <v>5.618225806451613</v>
+      </c>
+      <c r="F203">
+        <v>4.639049180327869</v>
+      </c>
+      <c r="G203">
+        <v>0.1160706434713853</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I203">
+        <v>0.05574193548387096</v>
+      </c>
+      <c r="J203">
+        <v>0.06137704918032787</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Anguilla</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>AIA</t>
+        </is>
+      </c>
+      <c r="D204" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0.04258912731404958</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Bonaire Sint Eustatius and Saba</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>BES</t>
+        </is>
+      </c>
+      <c r="D205" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E205">
+        <v>151.3191935483871</v>
+      </c>
+      <c r="F205">
+        <v>85.6527213114754</v>
+      </c>
+      <c r="G205">
+        <v>5.085388433998781</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I205">
+        <v>1.230225806451613</v>
+      </c>
+      <c r="J205">
+        <v>1.250393442622951</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Falkland Islands</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>FLK</t>
+        </is>
+      </c>
+      <c r="D206" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>3.696099431453572</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guernsey</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>GGY</t>
+        </is>
+      </c>
+      <c r="D207" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E207">
+        <v>2.405483870967742</v>
+      </c>
+      <c r="F207">
+        <v>1.466950819672131</v>
+      </c>
+      <c r="G207">
+        <v>2.21935184155075</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Jersey</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>JEY</t>
+        </is>
+      </c>
+      <c r="D208" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E208">
+        <v>33.19232258064516</v>
+      </c>
+      <c r="F208">
+        <v>21.89627868852459</v>
+      </c>
+      <c r="G208">
+        <v>1.921905940900871</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0.1621967213114754</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Montserrat</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MSR</t>
+        </is>
+      </c>
+      <c r="D209" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>1.203117534186593</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Vatican</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="D210" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E210">
+        <v>558.236</v>
+      </c>
+      <c r="F210">
+        <v>283.6937049180328</v>
+      </c>
+      <c r="G210">
+        <v>11.51413646755483</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Increasing</t>
+        </is>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Western Sahara</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ESH</t>
+        </is>
+      </c>
+      <c r="D211" s="2">
+        <v>44120</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>2.004348917709749</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Uncertain</t>
+        </is>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
